--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_35.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1991640.625252383</v>
+        <v>1990885.832269261</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2896994.290843036</v>
+        <v>2896994.290843035</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736562</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9148210.545067981</v>
+        <v>9148210.545067979</v>
       </c>
     </row>
     <row r="11">
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-1.261707554988661e-12</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-1.593289582579601e-12</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>-1.593289582579601e-12</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-1.529557999276416e-12</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1.593289582579601e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>-1.593289582579601e-12</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>-1.593289582579601e-12</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1.593289582579601e-12</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>-1.593289582579601e-12</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>-1.593289582579601e-12</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>-1.593289582579601e-12</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>-1.593289582579601e-12</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>-1.593289582579601e-12</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>8.816525072005941</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1221,61 +1221,61 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>8.816525072005941</v>
       </c>
-      <c r="G9" t="n">
+      <c r="V9" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="W9" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
+      <c r="X9" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="T10" t="n">
+      <c r="W10" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
       <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8.816525072005941</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>307.3687569584301</v>
       </c>
       <c r="G11" t="n">
-        <v>308.7702359084508</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>221.4059562765828</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>47.94631158407879</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.59762315252745</v>
+        <v>70.59762315252748</v>
       </c>
       <c r="T11" t="n">
         <v>117.1465288645459</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3080890775819937</v>
+        <v>149.6530179828525</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>141.8120598184234</v>
       </c>
       <c r="W11" t="n">
         <v>256.2686590164737</v>
@@ -1436,7 +1436,7 @@
         <v>275.5689172492204</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>286.9655150454191</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>127.1566828057039</v>
       </c>
       <c r="H12" t="n">
-        <v>96.19049711964605</v>
+        <v>96.19049711964607</v>
       </c>
       <c r="I12" t="n">
         <v>57.9020697188221</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.52047263646534</v>
+        <v>41.52047263646536</v>
       </c>
       <c r="S12" t="n">
         <v>145.9864318313356</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.07889317303479</v>
+        <v>79.0788931730348</v>
       </c>
       <c r="C13" t="n">
-        <v>65.27888801843527</v>
+        <v>65.27888801843528</v>
       </c>
       <c r="D13" t="n">
-        <v>48.90025241601366</v>
+        <v>48.90025241601367</v>
       </c>
       <c r="E13" t="n">
-        <v>47.84800227179311</v>
+        <v>47.84800227179312</v>
       </c>
       <c r="F13" t="n">
-        <v>48.31492659997942</v>
+        <v>48.31492659997943</v>
       </c>
       <c r="G13" t="n">
-        <v>64.35108710701111</v>
+        <v>64.35108710701112</v>
       </c>
       <c r="H13" t="n">
-        <v>53.01713980218871</v>
+        <v>53.01713980218872</v>
       </c>
       <c r="I13" t="n">
-        <v>32.94647717468526</v>
+        <v>32.94647717468527</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.65991636537676</v>
+        <v>34.65991636537677</v>
       </c>
       <c r="S13" t="n">
-        <v>104.7746029199931</v>
+        <v>104.7746029199932</v>
       </c>
       <c r="T13" t="n">
         <v>127.1870160031714</v>
@@ -1594,7 +1594,7 @@
         <v>126.2990176390768</v>
       </c>
       <c r="Y13" t="n">
-        <v>117.1738853951444</v>
+        <v>117.1738853951445</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>287.4621822983377</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>275.4734992560194</v>
+        <v>275.4734992560195</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>265.096667172114</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>307.3687569584301</v>
       </c>
       <c r="G14" t="n">
-        <v>216.6536883351167</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>221.4059562765828</v>
+        <v>221.4059562765829</v>
       </c>
       <c r="I14" t="n">
-        <v>47.9463115840788</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.59762315252745</v>
+        <v>70.59762315252748</v>
       </c>
       <c r="T14" t="n">
-        <v>117.1465288645458</v>
+        <v>117.1465288645459</v>
       </c>
       <c r="U14" t="n">
         <v>149.6530179828525</v>
@@ -1670,10 +1670,10 @@
         <v>256.2686590164737</v>
       </c>
       <c r="X14" t="n">
-        <v>275.5689172492203</v>
+        <v>275.5689172492204</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>286.9655150454191</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>96.19049711964607</v>
       </c>
       <c r="I15" t="n">
-        <v>57.90206971882211</v>
+        <v>57.9020697188221</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.07889317303476</v>
+        <v>79.0788931730348</v>
       </c>
       <c r="C16" t="n">
-        <v>65.27888801843524</v>
+        <v>65.27888801843528</v>
       </c>
       <c r="D16" t="n">
-        <v>48.90025241601363</v>
+        <v>48.90025241601367</v>
       </c>
       <c r="E16" t="n">
-        <v>47.84800227179308</v>
+        <v>47.84800227179312</v>
       </c>
       <c r="F16" t="n">
-        <v>48.31492659997939</v>
+        <v>48.31492659997943</v>
       </c>
       <c r="G16" t="n">
-        <v>64.35108710701108</v>
+        <v>64.35108710701112</v>
       </c>
       <c r="H16" t="n">
-        <v>53.01713980218868</v>
+        <v>53.01713980218872</v>
       </c>
       <c r="I16" t="n">
-        <v>32.94647717468523</v>
+        <v>32.94647717468527</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.65991636537673</v>
+        <v>34.65991636537678</v>
       </c>
       <c r="S16" t="n">
-        <v>104.7746029199931</v>
+        <v>104.7746029199932</v>
       </c>
       <c r="T16" t="n">
         <v>127.1870160031714</v>
@@ -1822,16 +1822,16 @@
         <v>181.6644038977817</v>
       </c>
       <c r="V16" t="n">
-        <v>155.4870295726603</v>
+        <v>155.4870295726604</v>
       </c>
       <c r="W16" t="n">
         <v>180.6539156432736</v>
       </c>
       <c r="X16" t="n">
-        <v>126.2990176390767</v>
+        <v>126.2990176390768</v>
       </c>
       <c r="Y16" t="n">
-        <v>117.1738853951444</v>
+        <v>117.1738853951445</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>224.1916469265037</v>
+        <v>224.1916469265038</v>
       </c>
       <c r="C17" t="n">
-        <v>212.2029638841855</v>
+        <v>212.2029638841856</v>
       </c>
       <c r="D17" t="n">
-        <v>203.1842679287134</v>
+        <v>203.1842679287136</v>
       </c>
       <c r="E17" t="n">
-        <v>224.926405498619</v>
+        <v>224.9264054986191</v>
       </c>
       <c r="F17" t="n">
-        <v>244.0982215865961</v>
+        <v>244.0982215865963</v>
       </c>
       <c r="G17" t="n">
-        <v>245.4997005366168</v>
+        <v>245.4997005366169</v>
       </c>
       <c r="H17" t="n">
-        <v>158.1354209047489</v>
+        <v>158.135420904749</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.32708778069347</v>
+        <v>7.327087780693583</v>
       </c>
       <c r="T17" t="n">
-        <v>53.87599349271187</v>
+        <v>53.87599349271199</v>
       </c>
       <c r="U17" t="n">
-        <v>86.38248261101967</v>
+        <v>86.38248261101865</v>
       </c>
       <c r="V17" t="n">
-        <v>167.6980241666828</v>
+        <v>167.698024166683</v>
       </c>
       <c r="W17" t="n">
-        <v>192.9981236446397</v>
+        <v>192.9981236446399</v>
       </c>
       <c r="X17" t="n">
-        <v>212.2983818773864</v>
+        <v>212.2983818773865</v>
       </c>
       <c r="Y17" t="n">
-        <v>223.6949796735851</v>
+        <v>223.6949796735852</v>
       </c>
     </row>
     <row r="18">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.8083578012008</v>
+        <v>15.80835780120091</v>
       </c>
       <c r="C19" t="n">
-        <v>2.008352646601281</v>
+        <v>2.008352646601395</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.080551735177124</v>
+        <v>1.080551735177238</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>194.6689340996491</v>
+        <v>194.668934099648</v>
       </c>
       <c r="T19" t="n">
-        <v>63.91648063133739</v>
+        <v>63.91648063133751</v>
       </c>
       <c r="U19" t="n">
-        <v>118.3938685259477</v>
+        <v>118.3938685259479</v>
       </c>
       <c r="V19" t="n">
-        <v>92.21649420082639</v>
+        <v>92.2164942008265</v>
       </c>
       <c r="W19" t="n">
-        <v>117.3833802714396</v>
+        <v>117.3833802714398</v>
       </c>
       <c r="X19" t="n">
-        <v>63.02848226724277</v>
+        <v>63.02848226724288</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.90335002331045</v>
+        <v>53.90335002331057</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.1916469265037</v>
+        <v>224.1916469265038</v>
       </c>
       <c r="C20" t="n">
-        <v>212.2029638841855</v>
+        <v>212.2029638841856</v>
       </c>
       <c r="D20" t="n">
-        <v>203.1842679287134</v>
+        <v>203.1842679287136</v>
       </c>
       <c r="E20" t="n">
-        <v>224.926405498619</v>
+        <v>224.9264054986191</v>
       </c>
       <c r="F20" t="n">
-        <v>244.0982215865961</v>
+        <v>244.0982215865963</v>
       </c>
       <c r="G20" t="n">
-        <v>245.4997005366168</v>
+        <v>245.4997005366169</v>
       </c>
       <c r="H20" t="n">
-        <v>158.1354209047489</v>
+        <v>158.135420904749</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.32708778069347</v>
+        <v>7.327087780693583</v>
       </c>
       <c r="T20" t="n">
-        <v>53.87599349271188</v>
+        <v>53.87599349271199</v>
       </c>
       <c r="U20" t="n">
-        <v>86.38248261101853</v>
+        <v>86.38248261101865</v>
       </c>
       <c r="V20" t="n">
-        <v>167.6980241666828</v>
+        <v>167.698024166683</v>
       </c>
       <c r="W20" t="n">
-        <v>192.9981236446397</v>
+        <v>192.9981236446399</v>
       </c>
       <c r="X20" t="n">
-        <v>212.2983818773864</v>
+        <v>212.2983818773865</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.6949796735851</v>
+        <v>223.6949796735852</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.8083578012008</v>
+        <v>15.80835780120091</v>
       </c>
       <c r="C22" t="n">
-        <v>2.008352646601281</v>
+        <v>2.008352646601395</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.080551735177124</v>
+        <v>1.080551735177238</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>41.50406754815916</v>
+        <v>194.668934099648</v>
       </c>
       <c r="T22" t="n">
-        <v>63.91648063133739</v>
+        <v>63.91648063133751</v>
       </c>
       <c r="U22" t="n">
-        <v>271.5587350774377</v>
+        <v>118.3938685259479</v>
       </c>
       <c r="V22" t="n">
-        <v>92.21649420082639</v>
+        <v>92.2164942008265</v>
       </c>
       <c r="W22" t="n">
-        <v>117.3833802714396</v>
+        <v>117.3833802714398</v>
       </c>
       <c r="X22" t="n">
-        <v>63.02848226724277</v>
+        <v>63.02848226724288</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.90335002331045</v>
+        <v>53.90335002331057</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224.1916469265037</v>
+        <v>224.1916469265038</v>
       </c>
       <c r="C23" t="n">
-        <v>212.2029638841855</v>
+        <v>212.2029638841856</v>
       </c>
       <c r="D23" t="n">
-        <v>203.1842679287134</v>
+        <v>203.1842679287136</v>
       </c>
       <c r="E23" t="n">
-        <v>224.926405498619</v>
+        <v>224.9264054986191</v>
       </c>
       <c r="F23" t="n">
-        <v>244.0982215865961</v>
+        <v>244.0982215865963</v>
       </c>
       <c r="G23" t="n">
-        <v>245.4997005366168</v>
+        <v>245.4997005366169</v>
       </c>
       <c r="H23" t="n">
-        <v>158.1354209047489</v>
+        <v>158.135420904749</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.327087780693461</v>
+        <v>7.327087780693574</v>
       </c>
       <c r="T23" t="n">
-        <v>53.87599349271187</v>
+        <v>53.87599349271198</v>
       </c>
       <c r="U23" t="n">
-        <v>86.38248261101853</v>
+        <v>86.38248261101865</v>
       </c>
       <c r="V23" t="n">
-        <v>167.6980241666828</v>
+        <v>167.698024166683</v>
       </c>
       <c r="W23" t="n">
-        <v>192.9981236446397</v>
+        <v>192.9981236446399</v>
       </c>
       <c r="X23" t="n">
-        <v>212.2983818773864</v>
+        <v>212.2983818773865</v>
       </c>
       <c r="Y23" t="n">
-        <v>223.6949796735851</v>
+        <v>223.6949796735852</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.8083578012008</v>
+        <v>15.80835780120091</v>
       </c>
       <c r="C25" t="n">
-        <v>2.008352646601281</v>
+        <v>2.008352646601395</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.080551735177124</v>
+        <v>1.080551735177238</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2518,31 +2518,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.1773103322481</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>41.50406754815916</v>
+        <v>41.50406754815928</v>
       </c>
       <c r="T25" t="n">
-        <v>63.91648063133739</v>
+        <v>63.91648063133751</v>
       </c>
       <c r="U25" t="n">
-        <v>253.3814247451895</v>
+        <v>271.5587350774366</v>
       </c>
       <c r="V25" t="n">
-        <v>92.21649420082639</v>
+        <v>92.2164942008265</v>
       </c>
       <c r="W25" t="n">
-        <v>117.3833802714396</v>
+        <v>117.3833802714398</v>
       </c>
       <c r="X25" t="n">
-        <v>63.02848226724277</v>
+        <v>63.02848226724288</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.90335002331045</v>
+        <v>53.90335002331057</v>
       </c>
     </row>
     <row r="26">
@@ -2555,25 +2555,25 @@
         <v>287.4621822983377</v>
       </c>
       <c r="C26" t="n">
-        <v>275.4734992560194</v>
+        <v>275.4734992560195</v>
       </c>
       <c r="D26" t="n">
         <v>266.4548033005474</v>
       </c>
       <c r="E26" t="n">
-        <v>288.1969408704529</v>
+        <v>288.196940870453</v>
       </c>
       <c r="F26" t="n">
         <v>307.3687569584301</v>
       </c>
       <c r="G26" t="n">
-        <v>308.7702359084507</v>
+        <v>308.7702359084508</v>
       </c>
       <c r="H26" t="n">
-        <v>221.4059562765828</v>
+        <v>221.4059562765829</v>
       </c>
       <c r="I26" t="n">
-        <v>47.9463115840788</v>
+        <v>47.94631158407883</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.59762315252743</v>
+        <v>70.59762315252746</v>
       </c>
       <c r="T26" t="n">
-        <v>117.1465288645458</v>
+        <v>117.1465288645459</v>
       </c>
       <c r="U26" t="n">
         <v>149.6530179828525</v>
@@ -2618,10 +2618,10 @@
         <v>256.2686590164737</v>
       </c>
       <c r="X26" t="n">
-        <v>275.5689172492203</v>
+        <v>275.5689172492204</v>
       </c>
       <c r="Y26" t="n">
-        <v>286.96551504542</v>
+        <v>286.9655150454191</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>96.19049711964607</v>
       </c>
       <c r="I27" t="n">
-        <v>57.90206971882211</v>
+        <v>57.9020697188221</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.07889317303476</v>
+        <v>79.07889317303479</v>
       </c>
       <c r="C28" t="n">
-        <v>65.27888801843524</v>
+        <v>65.27888801843527</v>
       </c>
       <c r="D28" t="n">
-        <v>48.90025241601363</v>
+        <v>48.90025241601366</v>
       </c>
       <c r="E28" t="n">
-        <v>47.84800227179308</v>
+        <v>47.84800227179311</v>
       </c>
       <c r="F28" t="n">
-        <v>48.31492659997939</v>
+        <v>48.31492659997942</v>
       </c>
       <c r="G28" t="n">
-        <v>64.35108710701108</v>
+        <v>64.35108710701111</v>
       </c>
       <c r="H28" t="n">
-        <v>53.01713980218868</v>
+        <v>53.01713980218871</v>
       </c>
       <c r="I28" t="n">
-        <v>32.94647717468523</v>
+        <v>32.94647717468526</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65991636537674</v>
+        <v>34.65991636537677</v>
       </c>
       <c r="S28" t="n">
         <v>104.7746029199931</v>
       </c>
       <c r="T28" t="n">
-        <v>127.1870160031713</v>
+        <v>127.1870160031714</v>
       </c>
       <c r="U28" t="n">
         <v>181.6644038977817</v>
       </c>
       <c r="V28" t="n">
-        <v>155.4870295726603</v>
+        <v>155.4870295726604</v>
       </c>
       <c r="W28" t="n">
         <v>180.6539156432736</v>
       </c>
       <c r="X28" t="n">
-        <v>126.2990176390767</v>
+        <v>126.2990176390768</v>
       </c>
       <c r="Y28" t="n">
         <v>117.1738853951444</v>
@@ -2807,10 +2807,10 @@
         <v>308.7702359084508</v>
       </c>
       <c r="H29" t="n">
-        <v>221.4059562765829</v>
+        <v>221.4059562765828</v>
       </c>
       <c r="I29" t="n">
-        <v>47.94631158407883</v>
+        <v>47.94631158407881</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>127.1566828057039</v>
       </c>
       <c r="H30" t="n">
-        <v>96.19049711964607</v>
+        <v>96.19049711964605</v>
       </c>
       <c r="I30" t="n">
         <v>57.9020697188221</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.52047263646536</v>
+        <v>41.52047263646534</v>
       </c>
       <c r="S30" t="n">
         <v>145.9864318313356</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.07889317303479</v>
+        <v>79.0788931730348</v>
       </c>
       <c r="C31" t="n">
-        <v>65.27888801843527</v>
+        <v>65.27888801843528</v>
       </c>
       <c r="D31" t="n">
-        <v>48.90025241601366</v>
+        <v>48.90025241601367</v>
       </c>
       <c r="E31" t="n">
-        <v>47.84800227179311</v>
+        <v>47.84800227179312</v>
       </c>
       <c r="F31" t="n">
-        <v>48.31492659997942</v>
+        <v>48.31492659997943</v>
       </c>
       <c r="G31" t="n">
-        <v>64.35108710701111</v>
+        <v>64.35108710701112</v>
       </c>
       <c r="H31" t="n">
-        <v>53.01713980218871</v>
+        <v>53.01713980218872</v>
       </c>
       <c r="I31" t="n">
         <v>32.94647717468526</v>
@@ -2998,7 +2998,7 @@
         <v>34.65991636537677</v>
       </c>
       <c r="S31" t="n">
-        <v>104.7746029199931</v>
+        <v>104.7746029199932</v>
       </c>
       <c r="T31" t="n">
         <v>127.1870160031714</v>
@@ -3016,7 +3016,7 @@
         <v>126.2990176390768</v>
       </c>
       <c r="Y31" t="n">
-        <v>117.1738853951444</v>
+        <v>117.1738853951445</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>284.8724782036178</v>
+        <v>284.8724782036172</v>
       </c>
       <c r="C32" t="n">
-        <v>272.8837951612995</v>
+        <v>272.883795161299</v>
       </c>
       <c r="D32" t="n">
-        <v>263.8650992058275</v>
+        <v>263.8650992058269</v>
       </c>
       <c r="E32" t="n">
-        <v>285.607236775733</v>
+        <v>285.6072367757325</v>
       </c>
       <c r="F32" t="n">
-        <v>304.7790528637102</v>
+        <v>304.7790528637097</v>
       </c>
       <c r="G32" t="n">
-        <v>306.1805318137309</v>
+        <v>306.1805318137303</v>
       </c>
       <c r="H32" t="n">
-        <v>218.8162521818629</v>
+        <v>218.8162521818624</v>
       </c>
       <c r="I32" t="n">
-        <v>45.35660748935891</v>
+        <v>45.35660748935837</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>68.00791905780753</v>
+        <v>68.00791905780699</v>
       </c>
       <c r="T32" t="n">
-        <v>114.5568247698259</v>
+        <v>114.5568247698254</v>
       </c>
       <c r="U32" t="n">
-        <v>147.0633138881326</v>
+        <v>147.0633138881321</v>
       </c>
       <c r="V32" t="n">
-        <v>228.3788554437969</v>
+        <v>228.3788554437964</v>
       </c>
       <c r="W32" t="n">
-        <v>253.6789549217538</v>
+        <v>253.6789549217533</v>
       </c>
       <c r="X32" t="n">
-        <v>272.9792131545004</v>
+        <v>272.9792131544999</v>
       </c>
       <c r="Y32" t="n">
-        <v>284.3758109506992</v>
+        <v>284.3758109506987</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>76.48918907831487</v>
+        <v>76.48918907831433</v>
       </c>
       <c r="C34" t="n">
-        <v>62.68918392371535</v>
+        <v>62.68918392371481</v>
       </c>
       <c r="D34" t="n">
-        <v>46.31054832129374</v>
+        <v>46.3105483212932</v>
       </c>
       <c r="E34" t="n">
-        <v>45.25829817707319</v>
+        <v>45.25829817707265</v>
       </c>
       <c r="F34" t="n">
-        <v>45.7252225052595</v>
+        <v>45.72522250525896</v>
       </c>
       <c r="G34" t="n">
-        <v>61.76138301229119</v>
+        <v>61.76138301229065</v>
       </c>
       <c r="H34" t="n">
-        <v>50.42743570746879</v>
+        <v>50.42743570746825</v>
       </c>
       <c r="I34" t="n">
-        <v>30.35677307996534</v>
+        <v>30.3567730799648</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>32.07021227065685</v>
+        <v>32.07021227065631</v>
       </c>
       <c r="S34" t="n">
-        <v>102.1848988252732</v>
+        <v>102.1848988252727</v>
       </c>
       <c r="T34" t="n">
-        <v>124.5973119084515</v>
+        <v>124.5973119084509</v>
       </c>
       <c r="U34" t="n">
-        <v>179.0746998030618</v>
+        <v>179.0746998030613</v>
       </c>
       <c r="V34" t="n">
-        <v>152.8973254779405</v>
+        <v>152.8973254779399</v>
       </c>
       <c r="W34" t="n">
-        <v>178.0642115485537</v>
+        <v>178.0642115485532</v>
       </c>
       <c r="X34" t="n">
-        <v>123.7093135443568</v>
+        <v>123.7093135443563</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5841813004245</v>
+        <v>114.584181300424</v>
       </c>
     </row>
     <row r="35">
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.07285567450819</v>
+        <v>20.07285567450822</v>
       </c>
       <c r="T35" t="n">
-        <v>66.6217613865266</v>
+        <v>66.62176138652663</v>
       </c>
       <c r="U35" t="n">
-        <v>99.12825050483326</v>
+        <v>99.12825050483329</v>
       </c>
       <c r="V35" t="n">
         <v>180.4437920604976</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.55412569501553</v>
+        <v>28.55412569501556</v>
       </c>
       <c r="C37" t="n">
-        <v>14.75412054041601</v>
+        <v>14.75412054041604</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>13.82631962899185</v>
+        <v>13.82631962899188</v>
       </c>
       <c r="H37" t="n">
-        <v>25.7071876133426</v>
+        <v>2.492372324169482</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>54.24983544197389</v>
+        <v>54.24983544197392</v>
       </c>
       <c r="T37" t="n">
-        <v>76.66224852515212</v>
+        <v>76.66224852515215</v>
       </c>
       <c r="U37" t="n">
-        <v>131.1396364197625</v>
+        <v>154.3544517089353</v>
       </c>
       <c r="V37" t="n">
         <v>104.9622620946411</v>
@@ -3487,10 +3487,10 @@
         <v>130.1291481652544</v>
       </c>
       <c r="X37" t="n">
-        <v>75.77425016105749</v>
+        <v>75.77425016105752</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.64911791712518</v>
+        <v>66.64911791712521</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>236.9374148203184</v>
+        <v>236.9374148203185</v>
       </c>
       <c r="C38" t="n">
         <v>224.9487317780002</v>
       </c>
       <c r="D38" t="n">
-        <v>215.9300358225281</v>
+        <v>215.9300358225282</v>
       </c>
       <c r="E38" t="n">
         <v>237.6721733924337</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.07285567450816</v>
+        <v>20.07285567450822</v>
       </c>
       <c r="T38" t="n">
-        <v>66.62176138652657</v>
+        <v>66.62176138652663</v>
       </c>
       <c r="U38" t="n">
-        <v>99.12825050483323</v>
+        <v>99.12825050483329</v>
       </c>
       <c r="V38" t="n">
-        <v>180.4437920604975</v>
+        <v>180.4437920604976</v>
       </c>
       <c r="W38" t="n">
-        <v>205.7438915384544</v>
+        <v>205.7438915384545</v>
       </c>
       <c r="X38" t="n">
         <v>225.0441497712011</v>
       </c>
       <c r="Y38" t="n">
-        <v>236.4407475673998</v>
+        <v>236.4407475673999</v>
       </c>
     </row>
     <row r="39">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.5541256950155</v>
+        <v>51.76894098418838</v>
       </c>
       <c r="C40" t="n">
-        <v>37.96893582958941</v>
+        <v>14.75412054041604</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>13.82631962899183</v>
+        <v>13.82631962899188</v>
       </c>
       <c r="H40" t="n">
-        <v>2.492372324169425</v>
+        <v>2.492372324169482</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>54.24983544197386</v>
+        <v>54.24983544197392</v>
       </c>
       <c r="T40" t="n">
-        <v>76.66224852515209</v>
+        <v>76.66224852515215</v>
       </c>
       <c r="U40" t="n">
-        <v>131.1396364197624</v>
+        <v>131.1396364197625</v>
       </c>
       <c r="V40" t="n">
         <v>104.9622620946411</v>
       </c>
       <c r="W40" t="n">
-        <v>130.1291481652543</v>
+        <v>130.1291481652544</v>
       </c>
       <c r="X40" t="n">
-        <v>75.77425016105747</v>
+        <v>75.77425016105752</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.64911791712515</v>
+        <v>66.64911791712521</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>257.8872195726044</v>
+        <v>257.8872195726045</v>
       </c>
       <c r="C41" t="n">
         <v>245.8985365302862</v>
@@ -3746,19 +3746,19 @@
         <v>236.8798405748142</v>
       </c>
       <c r="E41" t="n">
-        <v>258.6219781447197</v>
+        <v>244.5199847954338</v>
       </c>
       <c r="F41" t="n">
         <v>277.7937942326969</v>
       </c>
       <c r="G41" t="n">
-        <v>279.1952731827175</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>191.8309935508495</v>
+        <v>191.8309935508496</v>
       </c>
       <c r="I41" t="n">
-        <v>18.37134885834556</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>41.02266042679418</v>
+        <v>41.02266042679421</v>
       </c>
       <c r="T41" t="n">
-        <v>87.57156613881259</v>
+        <v>87.57156613881263</v>
       </c>
       <c r="U41" t="n">
-        <v>54.40339439025753</v>
+        <v>120.0780552571193</v>
       </c>
       <c r="V41" t="n">
         <v>201.3935968127836</v>
@@ -3803,7 +3803,7 @@
         <v>226.6936962907405</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>245.9939545234871</v>
       </c>
       <c r="Y41" t="n">
         <v>257.3905523196859</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49.50393044730151</v>
+        <v>49.50393044730154</v>
       </c>
       <c r="C43" t="n">
-        <v>35.703925292702</v>
+        <v>35.70392529270202</v>
       </c>
       <c r="D43" t="n">
-        <v>19.32528969028039</v>
+        <v>19.32528969028041</v>
       </c>
       <c r="E43" t="n">
-        <v>18.27303954605983</v>
+        <v>18.27303954605986</v>
       </c>
       <c r="F43" t="n">
-        <v>18.73996387424614</v>
+        <v>18.73996387424617</v>
       </c>
       <c r="G43" t="n">
-        <v>34.77612438127784</v>
+        <v>34.77612438127787</v>
       </c>
       <c r="H43" t="n">
-        <v>23.44217707645544</v>
+        <v>23.44217707645547</v>
       </c>
       <c r="I43" t="n">
-        <v>3.371514448951984</v>
+        <v>3.371514448952013</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.084953639643494</v>
+        <v>5.084953639643523</v>
       </c>
       <c r="S43" t="n">
-        <v>75.19964019425987</v>
+        <v>75.1996401942599</v>
       </c>
       <c r="T43" t="n">
-        <v>97.61205327743811</v>
+        <v>97.61205327743814</v>
       </c>
       <c r="U43" t="n">
         <v>152.0894411720485</v>
@@ -3961,10 +3961,10 @@
         <v>151.0789529175404</v>
       </c>
       <c r="X43" t="n">
-        <v>96.72405491334348</v>
+        <v>96.72405491334351</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.59892266941117</v>
+        <v>87.59892266941119</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3983,7 @@
         <v>236.8798405748142</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>258.6219781447197</v>
       </c>
       <c r="F44" t="n">
         <v>277.7937942326969</v>
@@ -3992,10 +3992,10 @@
         <v>279.1952731827175</v>
       </c>
       <c r="H44" t="n">
-        <v>191.8309935508496</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>18.37134885834558</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>41.0226604267942</v>
+        <v>41.02266042679421</v>
       </c>
       <c r="T44" t="n">
-        <v>87.57156613881261</v>
+        <v>87.57156613881263</v>
       </c>
       <c r="U44" t="n">
         <v>120.0780552571193</v>
@@ -4040,10 +4040,10 @@
         <v>226.6936962907405</v>
       </c>
       <c r="X44" t="n">
-        <v>192.947317277857</v>
+        <v>245.9939545234871</v>
       </c>
       <c r="Y44" t="n">
-        <v>257.3905523196859</v>
+        <v>155.9242793385314</v>
       </c>
     </row>
     <row r="45">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1.609383416747072e-12</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1.609383416747072e-12</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4765,10 +4765,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1.609383416747072e-12</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1.609383416747072e-12</v>
       </c>
     </row>
     <row r="8">
@@ -4802,25 +4802,25 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="J8" t="n">
-        <v>10.3099691464193</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="K8" t="n">
+        <v>0.8007743026345088</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.8007743026345088</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10.71035629773655</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10.71035629773655</v>
+      </c>
+      <c r="O8" t="n">
         <v>20.21955114152135</v>
       </c>
-      <c r="L8" t="n">
-        <v>20.21955114152135</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>30.12913313662339</v>
-      </c>
-      <c r="N8" t="n">
-        <v>40.03871513172544</v>
-      </c>
-      <c r="O8" t="n">
-        <v>40.03871513172544</v>
-      </c>
-      <c r="P8" t="n">
-        <v>40.03871513172544</v>
       </c>
       <c r="Q8" t="n">
         <v>40.03871513172544</v>
@@ -4829,19 +4829,19 @@
         <v>40.03871513172544</v>
       </c>
       <c r="S8" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="T8" t="n">
         <v>29.92792848229982</v>
       </c>
       <c r="U8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="V8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="W8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="X8" t="n">
         <v>21.02234760148574</v>
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>29.92792848229982</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="C9" t="n">
-        <v>29.92792848229982</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="D9" t="n">
-        <v>29.92792848229982</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="E9" t="n">
-        <v>29.92792848229982</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F9" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G9" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H9" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I9" t="n">
         <v>0.8007743026345088</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8007743026345088</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8007743026345088</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8007743026345088</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="N9" t="n">
-        <v>10.3099691464193</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="O9" t="n">
-        <v>20.21955114152135</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="P9" t="n">
         <v>30.12913313662339</v>
@@ -4905,28 +4905,28 @@
         <v>40.03871513172544</v>
       </c>
       <c r="R9" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="S9" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="T9" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="U9" t="n">
-        <v>29.92792848229982</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="V9" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="W9" t="n">
-        <v>29.92792848229982</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="X9" t="n">
-        <v>29.92792848229982</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="Y9" t="n">
-        <v>29.92792848229982</v>
+        <v>0.8007743026345088</v>
       </c>
     </row>
     <row r="10">
@@ -4966,16 +4966,16 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="L10" t="n">
-        <v>10.3099691464193</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="M10" t="n">
         <v>20.21955114152135</v>
       </c>
       <c r="N10" t="n">
+        <v>20.21955114152135</v>
+      </c>
+      <c r="O10" t="n">
         <v>30.12913313662339</v>
-      </c>
-      <c r="O10" t="n">
-        <v>40.03871513172544</v>
       </c>
       <c r="P10" t="n">
         <v>40.03871513172544</v>
@@ -4984,25 +4984,25 @@
         <v>40.03871513172544</v>
       </c>
       <c r="R10" t="n">
-        <v>40.03871513172544</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="S10" t="n">
-        <v>29.92792848229982</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="T10" t="n">
-        <v>19.81714183287421</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="U10" t="n">
-        <v>19.81714183287421</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="V10" t="n">
-        <v>19.81714183287421</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="W10" t="n">
-        <v>19.81714183287421</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="X10" t="n">
-        <v>9.70635518344859</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="Y10" t="n">
         <v>0.8007743026345088</v>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1514.43902375509</v>
+        <v>930.4768987357849</v>
       </c>
       <c r="C11" t="n">
-        <v>1236.182963900525</v>
+        <v>652.2208388812196</v>
       </c>
       <c r="D11" t="n">
-        <v>1236.182963900525</v>
+        <v>652.2208388812196</v>
       </c>
       <c r="E11" t="n">
-        <v>945.0749428192596</v>
+        <v>361.112817799954</v>
       </c>
       <c r="F11" t="n">
-        <v>634.6014509420575</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="G11" t="n">
-        <v>322.7123237618041</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="H11" t="n">
-        <v>99.06994368444781</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="I11" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J11" t="n">
-        <v>50.63932592275206</v>
+        <v>167.3214431483645</v>
       </c>
       <c r="K11" t="n">
-        <v>357.7487908024291</v>
+        <v>474.4309080280415</v>
       </c>
       <c r="L11" t="n">
-        <v>788.7152453613301</v>
+        <v>905.3973625869423</v>
       </c>
       <c r="M11" t="n">
-        <v>1274.398122764798</v>
+        <v>1391.08023999041</v>
       </c>
       <c r="N11" t="n">
-        <v>1746.669028496231</v>
+        <v>1863.351145721843</v>
       </c>
       <c r="O11" t="n">
-        <v>2140.378063430512</v>
+        <v>2257.060180656124</v>
       </c>
       <c r="P11" t="n">
-        <v>2444.242156105418</v>
+        <v>2380.681090994256</v>
       </c>
       <c r="Q11" t="n">
         <v>2531.966296137603</v>
@@ -5066,25 +5066,25 @@
         <v>2531.966296137603</v>
       </c>
       <c r="S11" t="n">
-        <v>2460.655565680504</v>
+        <v>2460.655565680505</v>
       </c>
       <c r="T11" t="n">
         <v>2342.3257385446</v>
       </c>
       <c r="U11" t="n">
-        <v>2342.014537456133</v>
+        <v>2191.161073915456</v>
       </c>
       <c r="V11" t="n">
-        <v>2342.014537456133</v>
+        <v>2047.916569048362</v>
       </c>
       <c r="W11" t="n">
-        <v>2083.157306126361</v>
+        <v>1789.05933771859</v>
       </c>
       <c r="X11" t="n">
-        <v>1804.804864460482</v>
+        <v>1510.706896052711</v>
       </c>
       <c r="Y11" t="n">
-        <v>1804.804864460482</v>
+        <v>1220.842739441176</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>916.993594840569</v>
+        <v>916.9935948405692</v>
       </c>
       <c r="C12" t="n">
-        <v>755.2899220815237</v>
+        <v>755.289922081524</v>
       </c>
       <c r="D12" t="n">
-        <v>616.4512850717358</v>
+        <v>616.451285071736</v>
       </c>
       <c r="E12" t="n">
-        <v>469.4232751286071</v>
+        <v>469.4232751286072</v>
       </c>
       <c r="F12" t="n">
         <v>334.7294770784815</v>
@@ -5115,25 +5115,25 @@
         <v>109.1262650326734</v>
       </c>
       <c r="I12" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J12" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="K12" t="n">
-        <v>325.616127339149</v>
+        <v>325.6161273391489</v>
       </c>
       <c r="L12" t="n">
-        <v>752.5998474481947</v>
+        <v>752.5998474481946</v>
       </c>
       <c r="M12" t="n">
-        <v>938.6037153416568</v>
+        <v>1309.006224192882</v>
       </c>
       <c r="N12" t="n">
-        <v>1523.131416247197</v>
+        <v>1523.131416247198</v>
       </c>
       <c r="O12" t="n">
-        <v>1982.351834253086</v>
+        <v>1982.351834253087</v>
       </c>
       <c r="P12" t="n">
         <v>2338.237587102991</v>
@@ -5145,19 +5145,19 @@
         <v>2490.026424787638</v>
       </c>
       <c r="S12" t="n">
-        <v>2342.565382533763</v>
+        <v>2342.565382533764</v>
       </c>
       <c r="T12" t="n">
-        <v>2155.038727509661</v>
+        <v>2155.038727509662</v>
       </c>
       <c r="U12" t="n">
-        <v>1936.562843412812</v>
+        <v>1936.562843412813</v>
       </c>
       <c r="V12" t="n">
-        <v>1708.167220861146</v>
+        <v>1708.167220861147</v>
       </c>
       <c r="W12" t="n">
-        <v>1466.851352094456</v>
+        <v>1466.851352094457</v>
       </c>
       <c r="X12" t="n">
         <v>1268.934363972251</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.9390970238697</v>
+        <v>414.9390970238694</v>
       </c>
       <c r="C13" t="n">
-        <v>349.0008262981776</v>
+        <v>349.0008262981771</v>
       </c>
       <c r="D13" t="n">
-        <v>299.6066319385678</v>
+        <v>299.6066319385677</v>
       </c>
       <c r="E13" t="n">
-        <v>251.2753165125142</v>
+        <v>251.275316512514</v>
       </c>
       <c r="F13" t="n">
-        <v>202.4723603509188</v>
+        <v>202.4723603509186</v>
       </c>
       <c r="G13" t="n">
-        <v>137.4712622630288</v>
+        <v>137.4712622630286</v>
       </c>
       <c r="H13" t="n">
-        <v>83.9185957961715</v>
+        <v>83.91859579617153</v>
       </c>
       <c r="I13" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J13" t="n">
         <v>110.0880241976685</v>
@@ -5221,7 +5221,7 @@
         <v>1533.099380467822</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.089363937139</v>
+        <v>1498.089363937138</v>
       </c>
       <c r="S13" t="n">
         <v>1392.256431694721</v>
@@ -5233,16 +5233,16 @@
         <v>1080.285300481637</v>
       </c>
       <c r="V13" t="n">
-        <v>923.2276948526876</v>
+        <v>923.2276948526871</v>
       </c>
       <c r="W13" t="n">
-        <v>740.7489921827142</v>
+        <v>740.7489921827138</v>
       </c>
       <c r="X13" t="n">
-        <v>613.1742268907175</v>
+        <v>613.1742268907171</v>
       </c>
       <c r="Y13" t="n">
-        <v>494.8167668956221</v>
+        <v>494.8167668956218</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1130.283984922982</v>
+        <v>1130.78566901684</v>
       </c>
       <c r="C14" t="n">
-        <v>852.0279250684171</v>
+        <v>852.5296091622752</v>
       </c>
       <c r="D14" t="n">
-        <v>852.0279250684171</v>
+        <v>584.7551978773107</v>
       </c>
       <c r="E14" t="n">
-        <v>852.0279250684171</v>
+        <v>584.7551978773107</v>
       </c>
       <c r="F14" t="n">
-        <v>541.5544331912149</v>
+        <v>274.2817060001085</v>
       </c>
       <c r="G14" t="n">
-        <v>322.7123237618042</v>
+        <v>274.2817060001085</v>
       </c>
       <c r="H14" t="n">
-        <v>99.06994368444779</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="I14" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J14" t="n">
         <v>167.3214431483645</v>
       </c>
       <c r="K14" t="n">
-        <v>474.4309080280414</v>
+        <v>474.4309080280415</v>
       </c>
       <c r="L14" t="n">
         <v>905.3973625869423</v>
       </c>
       <c r="M14" t="n">
-        <v>1391.08023999041</v>
+        <v>1362.122262796984</v>
       </c>
       <c r="N14" t="n">
-        <v>1863.351145721843</v>
+        <v>1834.393168528417</v>
       </c>
       <c r="O14" t="n">
-        <v>2257.060180656124</v>
+        <v>2228.102203462698</v>
       </c>
       <c r="P14" t="n">
         <v>2531.966296137603</v>
@@ -5303,25 +5303,25 @@
         <v>2531.966296137603</v>
       </c>
       <c r="S14" t="n">
-        <v>2460.655565680504</v>
+        <v>2460.655565680505</v>
       </c>
       <c r="T14" t="n">
         <v>2342.3257385446</v>
       </c>
       <c r="U14" t="n">
-        <v>2191.161073915456</v>
+        <v>2191.161073915457</v>
       </c>
       <c r="V14" t="n">
         <v>1957.859498624025</v>
       </c>
       <c r="W14" t="n">
-        <v>1699.002267294253</v>
+        <v>1699.002267294254</v>
       </c>
       <c r="X14" t="n">
-        <v>1420.649825628374</v>
+        <v>1420.649825628375</v>
       </c>
       <c r="Y14" t="n">
-        <v>1420.649825628374</v>
+        <v>1130.78566901684</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>916.993594840569</v>
+        <v>916.9935948405695</v>
       </c>
       <c r="C15" t="n">
-        <v>755.2899220815239</v>
+        <v>755.2899220815243</v>
       </c>
       <c r="D15" t="n">
-        <v>616.451285071736</v>
+        <v>616.4512850717365</v>
       </c>
       <c r="E15" t="n">
-        <v>469.4232751286072</v>
+        <v>469.4232751286077</v>
       </c>
       <c r="F15" t="n">
-        <v>334.7294770784816</v>
+        <v>334.729477078482</v>
       </c>
       <c r="G15" t="n">
-        <v>206.2883833353463</v>
+        <v>206.2883833353462</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1262650326735</v>
+        <v>109.1262650326734</v>
       </c>
       <c r="I15" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J15" t="n">
         <v>137.50670239343</v>
@@ -5361,19 +5361,19 @@
         <v>412.4835038098269</v>
       </c>
       <c r="L15" t="n">
-        <v>412.4835038098269</v>
+        <v>839.4672239188726</v>
       </c>
       <c r="M15" t="n">
-        <v>938.6037153416573</v>
+        <v>1132.33242437627</v>
       </c>
       <c r="N15" t="n">
-        <v>1523.131416247198</v>
+        <v>1716.86012528181</v>
       </c>
       <c r="O15" t="n">
-        <v>1982.351834253087</v>
+        <v>2176.080543287699</v>
       </c>
       <c r="P15" t="n">
-        <v>2338.237587102991</v>
+        <v>2531.966296137603</v>
       </c>
       <c r="Q15" t="n">
         <v>2531.966296137603</v>
@@ -5397,7 +5397,7 @@
         <v>1466.851352094457</v>
       </c>
       <c r="X15" t="n">
-        <v>1268.934363972251</v>
+        <v>1268.934363972252</v>
       </c>
       <c r="Y15" t="n">
         <v>1076.41303762183</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>414.9390970238696</v>
+        <v>414.9390970238699</v>
       </c>
       <c r="C16" t="n">
-        <v>349.0008262981775</v>
+        <v>349.0008262981777</v>
       </c>
       <c r="D16" t="n">
-        <v>299.6066319385677</v>
+        <v>299.6066319385679</v>
       </c>
       <c r="E16" t="n">
-        <v>251.2753165125141</v>
+        <v>251.2753165125142</v>
       </c>
       <c r="F16" t="n">
-        <v>202.4723603509187</v>
+        <v>202.4723603509188</v>
       </c>
       <c r="G16" t="n">
         <v>137.4712622630288</v>
       </c>
       <c r="H16" t="n">
-        <v>83.9185957961715</v>
+        <v>83.91859579617153</v>
       </c>
       <c r="I16" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J16" t="n">
         <v>110.0880241976686</v>
       </c>
       <c r="K16" t="n">
-        <v>272.7438500392108</v>
+        <v>272.7438500392107</v>
       </c>
       <c r="L16" t="n">
-        <v>510.0755164020617</v>
+        <v>510.0755164020619</v>
       </c>
       <c r="M16" t="n">
-        <v>766.7021857489985</v>
+        <v>766.7021857489992</v>
       </c>
       <c r="N16" t="n">
         <v>1022.877469947108</v>
@@ -5452,34 +5452,34 @@
         <v>1256.33531818274</v>
       </c>
       <c r="P16" t="n">
-        <v>1449.480405090491</v>
+        <v>1449.480405090492</v>
       </c>
       <c r="Q16" t="n">
         <v>1533.099380467822</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.089363937138</v>
+        <v>1498.089363937139</v>
       </c>
       <c r="S16" t="n">
         <v>1392.256431694721</v>
       </c>
       <c r="T16" t="n">
-        <v>1263.784698358184</v>
+        <v>1263.784698358185</v>
       </c>
       <c r="U16" t="n">
         <v>1080.285300481637</v>
       </c>
       <c r="V16" t="n">
-        <v>923.2276948526874</v>
+        <v>923.2276948526877</v>
       </c>
       <c r="W16" t="n">
-        <v>740.748992182714</v>
+        <v>740.7489921827143</v>
       </c>
       <c r="X16" t="n">
-        <v>613.1742268907173</v>
+        <v>613.1742268907176</v>
       </c>
       <c r="Y16" t="n">
-        <v>494.8167668956219</v>
+        <v>494.8167668956222</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1351.696881821216</v>
+        <v>1351.696881821217</v>
       </c>
       <c r="C17" t="n">
-        <v>1137.350453655372</v>
+        <v>1137.350453655373</v>
       </c>
       <c r="D17" t="n">
-        <v>932.1138193839447</v>
+        <v>932.113819383945</v>
       </c>
       <c r="E17" t="n">
-        <v>704.9154299914003</v>
+        <v>704.9154299914005</v>
       </c>
       <c r="F17" t="n">
-        <v>458.3515698029194</v>
+        <v>458.3515698029195</v>
       </c>
       <c r="G17" t="n">
-        <v>210.3720743113873</v>
+        <v>210.3720743113874</v>
       </c>
       <c r="H17" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="I17" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J17" t="n">
         <v>167.3214431483645</v>
       </c>
       <c r="K17" t="n">
-        <v>294.1877256912683</v>
+        <v>474.4309080280415</v>
       </c>
       <c r="L17" t="n">
-        <v>725.1541802501691</v>
+        <v>905.3973625869423</v>
       </c>
       <c r="M17" t="n">
-        <v>1210.837057653637</v>
+        <v>1391.08023999041</v>
       </c>
       <c r="N17" t="n">
-        <v>1683.10796338507</v>
+        <v>1863.351145721843</v>
       </c>
       <c r="O17" t="n">
-        <v>2076.816998319351</v>
+        <v>2257.060180656124</v>
       </c>
       <c r="P17" t="n">
         <v>2380.681090994256</v>
@@ -5546,16 +5546,16 @@
         <v>2470.145001922042</v>
       </c>
       <c r="U17" t="n">
-        <v>2382.889968981618</v>
+        <v>2382.889968981619</v>
       </c>
       <c r="V17" t="n">
-        <v>2213.498025378908</v>
+        <v>2213.498025378909</v>
       </c>
       <c r="W17" t="n">
-        <v>2018.550425737858</v>
+        <v>2018.550425737859</v>
       </c>
       <c r="X17" t="n">
-        <v>1804.1076157607</v>
+        <v>1804.107615760701</v>
       </c>
       <c r="Y17" t="n">
         <v>1578.153090837887</v>
@@ -5589,19 +5589,19 @@
         <v>109.1262650326734</v>
       </c>
       <c r="I18" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J18" t="n">
-        <v>107.2205371805731</v>
+        <v>137.50670239343</v>
       </c>
       <c r="K18" t="n">
-        <v>382.19733859697</v>
+        <v>137.50670239343</v>
       </c>
       <c r="L18" t="n">
-        <v>382.19733859697</v>
+        <v>564.4904225024757</v>
       </c>
       <c r="M18" t="n">
-        <v>938.6037153416573</v>
+        <v>1120.896799247163</v>
       </c>
       <c r="N18" t="n">
         <v>1523.131416247198</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.75943135889187</v>
+        <v>53.75943135889211</v>
       </c>
       <c r="C19" t="n">
-        <v>51.73079232192087</v>
+        <v>51.730792321921</v>
       </c>
       <c r="D19" t="n">
-        <v>51.73079232192087</v>
+        <v>51.730792321921</v>
       </c>
       <c r="E19" t="n">
-        <v>51.73079232192087</v>
+        <v>51.730792321921</v>
       </c>
       <c r="F19" t="n">
-        <v>51.73079232192087</v>
+        <v>51.730792321921</v>
       </c>
       <c r="G19" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="H19" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="I19" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J19" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="K19" t="n">
         <v>111.680639158038</v>
@@ -5698,25 +5698,25 @@
         <v>780.3446311780376</v>
       </c>
       <c r="S19" t="n">
-        <v>583.709344208695</v>
+        <v>583.7093442086962</v>
       </c>
       <c r="T19" t="n">
-        <v>519.1472425608795</v>
+        <v>519.1472425608805</v>
       </c>
       <c r="U19" t="n">
-        <v>399.5574763730535</v>
+        <v>399.5574763730544</v>
       </c>
       <c r="V19" t="n">
-        <v>306.4095024328249</v>
+        <v>306.4095024328256</v>
       </c>
       <c r="W19" t="n">
-        <v>187.8404314515727</v>
+        <v>187.8404314515733</v>
       </c>
       <c r="X19" t="n">
-        <v>124.1752978482972</v>
+        <v>124.1752978482976</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.72746954192297</v>
+        <v>69.72746954192334</v>
       </c>
     </row>
     <row r="20">
@@ -5732,22 +5732,22 @@
         <v>1137.350453655373</v>
       </c>
       <c r="D20" t="n">
-        <v>932.1138193839455</v>
+        <v>932.1138193839452</v>
       </c>
       <c r="E20" t="n">
-        <v>704.9154299914011</v>
+        <v>704.915429991401</v>
       </c>
       <c r="F20" t="n">
-        <v>458.35156980292</v>
+        <v>458.3515698029199</v>
       </c>
       <c r="G20" t="n">
-        <v>210.3720743113873</v>
+        <v>210.3720743113874</v>
       </c>
       <c r="H20" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="I20" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J20" t="n">
         <v>167.3214431483645</v>
@@ -5759,7 +5759,7 @@
         <v>905.3973625869423</v>
       </c>
       <c r="M20" t="n">
-        <v>1210.837057653637</v>
+        <v>1391.08023999041</v>
       </c>
       <c r="N20" t="n">
         <v>1683.10796338507</v>
@@ -5780,10 +5780,10 @@
         <v>2524.565197369226</v>
       </c>
       <c r="T20" t="n">
-        <v>2470.145001922042</v>
+        <v>2470.145001922043</v>
       </c>
       <c r="U20" t="n">
-        <v>2382.889968981619</v>
+        <v>2382.88996898162</v>
       </c>
       <c r="V20" t="n">
         <v>2213.498025378909</v>
@@ -5795,7 +5795,7 @@
         <v>1804.107615760701</v>
       </c>
       <c r="Y20" t="n">
-        <v>1578.153090837887</v>
+        <v>1578.153090837888</v>
       </c>
     </row>
     <row r="21">
@@ -5826,16 +5826,16 @@
         <v>109.1262650326734</v>
       </c>
       <c r="I21" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J21" t="n">
-        <v>50.63932592275206</v>
+        <v>137.50670239343</v>
       </c>
       <c r="K21" t="n">
-        <v>325.6161273391489</v>
+        <v>412.4835038098269</v>
       </c>
       <c r="L21" t="n">
-        <v>752.5998474481946</v>
+        <v>839.4672239188726</v>
       </c>
       <c r="M21" t="n">
         <v>938.6037153416573</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.75943135889187</v>
+        <v>53.75943135889211</v>
       </c>
       <c r="C22" t="n">
-        <v>51.73079232192087</v>
+        <v>51.730792321921</v>
       </c>
       <c r="D22" t="n">
-        <v>51.73079232192087</v>
+        <v>51.730792321921</v>
       </c>
       <c r="E22" t="n">
-        <v>51.73079232192087</v>
+        <v>51.730792321921</v>
       </c>
       <c r="F22" t="n">
-        <v>51.73079232192087</v>
+        <v>51.730792321921</v>
       </c>
       <c r="G22" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="H22" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="I22" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J22" t="n">
-        <v>50.63932592275206</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="K22" t="n">
         <v>111.680639158038</v>
@@ -5935,25 +5935,25 @@
         <v>780.3446311780376</v>
       </c>
       <c r="S22" t="n">
-        <v>738.4213306243415</v>
+        <v>583.7093442086962</v>
       </c>
       <c r="T22" t="n">
-        <v>673.859228976526</v>
+        <v>519.1472425608805</v>
       </c>
       <c r="U22" t="n">
-        <v>399.5574763730535</v>
+        <v>399.5574763730544</v>
       </c>
       <c r="V22" t="n">
-        <v>306.4095024328249</v>
+        <v>306.4095024328256</v>
       </c>
       <c r="W22" t="n">
-        <v>187.8404314515727</v>
+        <v>187.8404314515733</v>
       </c>
       <c r="X22" t="n">
-        <v>124.1752978482972</v>
+        <v>124.1752978482976</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.72746954192297</v>
+        <v>69.72746954192334</v>
       </c>
     </row>
     <row r="23">
@@ -5972,64 +5972,64 @@
         <v>932.1138193839447</v>
       </c>
       <c r="E23" t="n">
-        <v>704.9154299914003</v>
+        <v>704.9154299914005</v>
       </c>
       <c r="F23" t="n">
         <v>458.3515698029194</v>
       </c>
       <c r="G23" t="n">
-        <v>210.3720743113873</v>
+        <v>210.3720743113874</v>
       </c>
       <c r="H23" t="n">
-        <v>50.63932592275204</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="I23" t="n">
-        <v>50.63932592275204</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J23" t="n">
-        <v>50.63932592275204</v>
+        <v>167.3214431483645</v>
       </c>
       <c r="K23" t="n">
-        <v>357.748790802429</v>
+        <v>474.4309080280415</v>
       </c>
       <c r="L23" t="n">
-        <v>788.7152453613298</v>
+        <v>725.1541802501696</v>
       </c>
       <c r="M23" t="n">
-        <v>1274.398122764797</v>
+        <v>1210.837057653637</v>
       </c>
       <c r="N23" t="n">
-        <v>1746.66902849623</v>
+        <v>1683.10796338507</v>
       </c>
       <c r="O23" t="n">
-        <v>2140.378063430511</v>
+        <v>2076.816998319351</v>
       </c>
       <c r="P23" t="n">
-        <v>2444.242156105417</v>
+        <v>2380.681090994256</v>
       </c>
       <c r="Q23" t="n">
-        <v>2531.966296137602</v>
+        <v>2531.966296137603</v>
       </c>
       <c r="R23" t="n">
-        <v>2531.966296137602</v>
+        <v>2531.966296137603</v>
       </c>
       <c r="S23" t="n">
-        <v>2524.565197369225</v>
+        <v>2524.565197369226</v>
       </c>
       <c r="T23" t="n">
-        <v>2470.145001922041</v>
+        <v>2470.145001922042</v>
       </c>
       <c r="U23" t="n">
-        <v>2382.889968981618</v>
+        <v>2382.889968981619</v>
       </c>
       <c r="V23" t="n">
-        <v>2213.498025378908</v>
+        <v>2213.498025378909</v>
       </c>
       <c r="W23" t="n">
-        <v>2018.550425737858</v>
+        <v>2018.550425737859</v>
       </c>
       <c r="X23" t="n">
-        <v>1804.1076157607</v>
+        <v>1804.107615760701</v>
       </c>
       <c r="Y23" t="n">
         <v>1578.153090837887</v>
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>916.993594840569</v>
+        <v>916.9935948405692</v>
       </c>
       <c r="C24" t="n">
-        <v>755.2899220815237</v>
+        <v>755.289922081524</v>
       </c>
       <c r="D24" t="n">
-        <v>616.4512850717358</v>
+        <v>616.451285071736</v>
       </c>
       <c r="E24" t="n">
-        <v>469.4232751286071</v>
+        <v>469.4232751286072</v>
       </c>
       <c r="F24" t="n">
         <v>334.7294770784815</v>
@@ -6063,25 +6063,25 @@
         <v>109.1262650326734</v>
       </c>
       <c r="I24" t="n">
-        <v>50.63932592275204</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J24" t="n">
-        <v>50.63932592275204</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="K24" t="n">
         <v>325.6161273391489</v>
       </c>
       <c r="L24" t="n">
-        <v>382.1973385969695</v>
+        <v>752.5998474481946</v>
       </c>
       <c r="M24" t="n">
-        <v>938.6037153416569</v>
+        <v>1309.006224192882</v>
       </c>
       <c r="N24" t="n">
-        <v>1523.131416247197</v>
+        <v>1523.131416247198</v>
       </c>
       <c r="O24" t="n">
-        <v>1982.351834253086</v>
+        <v>1982.351834253087</v>
       </c>
       <c r="P24" t="n">
         <v>2338.237587102991</v>
@@ -6093,19 +6093,19 @@
         <v>2490.026424787638</v>
       </c>
       <c r="S24" t="n">
-        <v>2342.565382533763</v>
+        <v>2342.565382533764</v>
       </c>
       <c r="T24" t="n">
-        <v>2155.038727509661</v>
+        <v>2155.038727509662</v>
       </c>
       <c r="U24" t="n">
-        <v>1936.562843412812</v>
+        <v>1936.562843412813</v>
       </c>
       <c r="V24" t="n">
-        <v>1708.167220861146</v>
+        <v>1708.167220861147</v>
       </c>
       <c r="W24" t="n">
-        <v>1466.851352094456</v>
+        <v>1466.851352094457</v>
       </c>
       <c r="X24" t="n">
         <v>1268.934363972251</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.75943135889185</v>
+        <v>53.75943135889211</v>
       </c>
       <c r="C25" t="n">
-        <v>51.73079232192086</v>
+        <v>51.730792321921</v>
       </c>
       <c r="D25" t="n">
-        <v>51.73079232192086</v>
+        <v>51.730792321921</v>
       </c>
       <c r="E25" t="n">
-        <v>51.73079232192086</v>
+        <v>51.730792321921</v>
       </c>
       <c r="F25" t="n">
-        <v>51.73079232192086</v>
+        <v>51.730792321921</v>
       </c>
       <c r="G25" t="n">
-        <v>50.63932592275204</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="H25" t="n">
-        <v>50.63932592275204</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="I25" t="n">
-        <v>50.63932592275204</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J25" t="n">
-        <v>50.63932592275204</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="K25" t="n">
         <v>111.680639158038</v>
@@ -6166,31 +6166,31 @@
         <v>780.3446311780376</v>
       </c>
       <c r="Q25" t="n">
-        <v>761.9837116505142</v>
+        <v>780.3446311780376</v>
       </c>
       <c r="R25" t="n">
-        <v>761.9837116505142</v>
+        <v>780.3446311780376</v>
       </c>
       <c r="S25" t="n">
-        <v>720.0604110968181</v>
+        <v>738.4213306243414</v>
       </c>
       <c r="T25" t="n">
-        <v>655.4983094490026</v>
+        <v>673.8592289765257</v>
       </c>
       <c r="U25" t="n">
-        <v>399.5574763730535</v>
+        <v>399.5574763730544</v>
       </c>
       <c r="V25" t="n">
-        <v>306.4095024328249</v>
+        <v>306.4095024328256</v>
       </c>
       <c r="W25" t="n">
-        <v>187.8404314515727</v>
+        <v>187.8404314515733</v>
       </c>
       <c r="X25" t="n">
-        <v>124.1752978482972</v>
+        <v>124.1752978482976</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.72746954192297</v>
+        <v>69.72746954192334</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1802.833564437766</v>
+        <v>1802.833564437767</v>
       </c>
       <c r="C26" t="n">
-        <v>1524.577504583201</v>
+        <v>1524.577504583202</v>
       </c>
       <c r="D26" t="n">
-        <v>1255.431238623052</v>
+        <v>1255.431238623053</v>
       </c>
       <c r="E26" t="n">
-        <v>964.3232175417861</v>
+        <v>964.323217541787</v>
       </c>
       <c r="F26" t="n">
-        <v>653.8497256645837</v>
+        <v>653.8497256645849</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9605984843305</v>
+        <v>341.9605984843315</v>
       </c>
       <c r="H26" t="n">
         <v>118.3182184069742</v>
@@ -6227,19 +6227,19 @@
         <v>288.1842304771471</v>
       </c>
       <c r="K26" t="n">
-        <v>601.0635205839444</v>
+        <v>696.9082079630803</v>
       </c>
       <c r="L26" t="n">
-        <v>1133.644487749101</v>
+        <v>1229.489175128237</v>
       </c>
       <c r="M26" t="n">
-        <v>1720.941877758825</v>
+        <v>1816.786565137961</v>
       </c>
       <c r="N26" t="n">
-        <v>2294.827296096515</v>
+        <v>2390.67198347565</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.150843637052</v>
+        <v>2885.995531016188</v>
       </c>
       <c r="P26" t="n">
         <v>3195.629448918214</v>
@@ -6251,10 +6251,10 @@
         <v>3494.380032263921</v>
       </c>
       <c r="S26" t="n">
-        <v>3423.069301806823</v>
+        <v>3423.069301806824</v>
       </c>
       <c r="T26" t="n">
-        <v>3304.739474670918</v>
+        <v>3304.739474670919</v>
       </c>
       <c r="U26" t="n">
         <v>3153.574810041775</v>
@@ -6269,7 +6269,7 @@
         <v>2383.063561754693</v>
       </c>
       <c r="Y26" t="n">
-        <v>2093.199405143157</v>
+        <v>2093.199405143158</v>
       </c>
     </row>
     <row r="27">
@@ -6309,19 +6309,19 @@
         <v>431.7317785323532</v>
       </c>
       <c r="L27" t="n">
-        <v>858.7154986413989</v>
+        <v>595.174322354108</v>
       </c>
       <c r="M27" t="n">
-        <v>1415.121875386086</v>
+        <v>1151.580699098795</v>
       </c>
       <c r="N27" t="n">
-        <v>1542.379690969724</v>
+        <v>1736.108400004336</v>
       </c>
       <c r="O27" t="n">
-        <v>2001.600108975613</v>
+        <v>2195.328818010224</v>
       </c>
       <c r="P27" t="n">
-        <v>2357.485861825518</v>
+        <v>2551.214570860129</v>
       </c>
       <c r="Q27" t="n">
         <v>2551.214570860129</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>434.1873717463961</v>
+        <v>434.187371746396</v>
       </c>
       <c r="C28" t="n">
-        <v>368.249101020704</v>
+        <v>368.2491010207038</v>
       </c>
       <c r="D28" t="n">
-        <v>318.8549066610942</v>
+        <v>318.854906661094</v>
       </c>
       <c r="E28" t="n">
-        <v>270.5235912350406</v>
+        <v>270.5235912350404</v>
       </c>
       <c r="F28" t="n">
-        <v>221.7206350734452</v>
+        <v>221.720635073445</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7195369855552</v>
+        <v>156.719536985555</v>
       </c>
       <c r="H28" t="n">
         <v>103.1668705186979</v>
@@ -6382,13 +6382,13 @@
         <v>69.88760064527843</v>
       </c>
       <c r="J28" t="n">
-        <v>129.336298920195</v>
+        <v>129.3362989201948</v>
       </c>
       <c r="K28" t="n">
-        <v>291.9921247617372</v>
+        <v>291.9921247617369</v>
       </c>
       <c r="L28" t="n">
-        <v>529.3237911245884</v>
+        <v>529.3237911245882</v>
       </c>
       <c r="M28" t="n">
         <v>785.950460471525</v>
@@ -6424,10 +6424,10 @@
         <v>759.9972669052405</v>
       </c>
       <c r="X28" t="n">
-        <v>632.4225016132439</v>
+        <v>632.4225016132438</v>
       </c>
       <c r="Y28" t="n">
-        <v>514.0650416181484</v>
+        <v>514.0650416181483</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1802.833564437766</v>
+        <v>1802.833564437765</v>
       </c>
       <c r="C29" t="n">
-        <v>1524.577504583201</v>
+        <v>1524.5775045832</v>
       </c>
       <c r="D29" t="n">
-        <v>1255.431238623052</v>
+        <v>1255.431238623051</v>
       </c>
       <c r="E29" t="n">
-        <v>964.3232175417863</v>
+        <v>964.3232175417858</v>
       </c>
       <c r="F29" t="n">
-        <v>653.8497256645842</v>
+        <v>653.8497256645836</v>
       </c>
       <c r="G29" t="n">
-        <v>341.9605984843308</v>
+        <v>341.9605984843303</v>
       </c>
       <c r="H29" t="n">
         <v>118.3182184069742</v>
@@ -6467,34 +6467,34 @@
         <v>696.9082079630803</v>
       </c>
       <c r="L29" t="n">
-        <v>1229.489175128237</v>
+        <v>1229.489175128238</v>
       </c>
       <c r="M29" t="n">
-        <v>1816.786565137961</v>
+        <v>1720.941877758825</v>
       </c>
       <c r="N29" t="n">
-        <v>2390.67198347565</v>
+        <v>2294.827296096514</v>
       </c>
       <c r="O29" t="n">
-        <v>2885.995531016188</v>
+        <v>2790.150843637051</v>
       </c>
       <c r="P29" t="n">
-        <v>3195.629448918214</v>
+        <v>3195.629448918213</v>
       </c>
       <c r="Q29" t="n">
-        <v>3448.529166667817</v>
+        <v>3448.529166667816</v>
       </c>
       <c r="R29" t="n">
         <v>3494.380032263921</v>
       </c>
       <c r="S29" t="n">
-        <v>3423.069301806823</v>
+        <v>3423.069301806822</v>
       </c>
       <c r="T29" t="n">
-        <v>3304.739474670918</v>
+        <v>3304.739474670917</v>
       </c>
       <c r="U29" t="n">
-        <v>3153.574810041774</v>
+        <v>3153.574810041773</v>
       </c>
       <c r="V29" t="n">
         <v>2920.273234750342</v>
@@ -6503,7 +6503,7 @@
         <v>2661.416003420571</v>
       </c>
       <c r="X29" t="n">
-        <v>2383.063561754692</v>
+        <v>2383.063561754691</v>
       </c>
       <c r="Y29" t="n">
         <v>2093.199405143157</v>
@@ -6540,25 +6540,25 @@
         <v>69.88760064527843</v>
       </c>
       <c r="J30" t="n">
-        <v>69.88760064527843</v>
+        <v>156.7549771159564</v>
       </c>
       <c r="K30" t="n">
-        <v>344.8644020616753</v>
+        <v>156.7549771159564</v>
       </c>
       <c r="L30" t="n">
-        <v>771.848122170721</v>
+        <v>401.4456133194961</v>
       </c>
       <c r="M30" t="n">
-        <v>1328.254498915408</v>
+        <v>957.8519900641835</v>
       </c>
       <c r="N30" t="n">
-        <v>1912.782199820949</v>
+        <v>1542.379690969724</v>
       </c>
       <c r="O30" t="n">
-        <v>2195.328818010224</v>
+        <v>2001.600108975613</v>
       </c>
       <c r="P30" t="n">
-        <v>2551.214570860129</v>
+        <v>2357.485861825518</v>
       </c>
       <c r="Q30" t="n">
         <v>2551.214570860129</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>434.187371746396</v>
+        <v>434.1873717463963</v>
       </c>
       <c r="C31" t="n">
-        <v>368.2491010207038</v>
+        <v>368.2491010207041</v>
       </c>
       <c r="D31" t="n">
-        <v>318.854906661094</v>
+        <v>318.8549066610943</v>
       </c>
       <c r="E31" t="n">
-        <v>270.5235912350404</v>
+        <v>270.5235912350406</v>
       </c>
       <c r="F31" t="n">
-        <v>221.720635073445</v>
+        <v>221.7206350734452</v>
       </c>
       <c r="G31" t="n">
-        <v>156.719536985555</v>
+        <v>156.7195369855552</v>
       </c>
       <c r="H31" t="n">
-        <v>103.1668705186978</v>
+        <v>103.1668705186979</v>
       </c>
       <c r="I31" t="n">
         <v>69.88760064527843</v>
       </c>
       <c r="J31" t="n">
-        <v>129.3362989201949</v>
+        <v>129.336298920195</v>
       </c>
       <c r="K31" t="n">
-        <v>291.992124761737</v>
+        <v>291.9921247617368</v>
       </c>
       <c r="L31" t="n">
-        <v>529.3237911245883</v>
+        <v>529.3237911245881</v>
       </c>
       <c r="M31" t="n">
-        <v>785.9504604715254</v>
+        <v>785.9504604715253</v>
       </c>
       <c r="N31" t="n">
-        <v>1042.125744669635</v>
+        <v>1042.125744669634</v>
       </c>
       <c r="O31" t="n">
-        <v>1275.583592905267</v>
+        <v>1275.583592905266</v>
       </c>
       <c r="P31" t="n">
         <v>1468.728679813018</v>
@@ -6664,7 +6664,7 @@
         <v>632.422501613244</v>
       </c>
       <c r="Y31" t="n">
-        <v>514.0650416181483</v>
+        <v>514.0650416181486</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1783.721751081555</v>
+        <v>1783.721751081552</v>
       </c>
       <c r="C32" t="n">
-        <v>1508.081553948929</v>
+        <v>1508.081553948926</v>
       </c>
       <c r="D32" t="n">
-        <v>1241.55115071072</v>
+        <v>1241.551150710717</v>
       </c>
       <c r="E32" t="n">
-        <v>953.0589923513935</v>
+        <v>953.0589923513915</v>
       </c>
       <c r="F32" t="n">
-        <v>645.2013631961306</v>
+        <v>645.2013631961291</v>
       </c>
       <c r="G32" t="n">
-        <v>335.9280987378165</v>
+        <v>335.9280987378156</v>
       </c>
       <c r="H32" t="n">
-        <v>114.9015813824004</v>
+        <v>114.9015813823997</v>
       </c>
       <c r="I32" t="n">
-        <v>69.08682634264392</v>
+        <v>69.08682634264379</v>
       </c>
       <c r="J32" t="n">
-        <v>289.9472632282854</v>
+        <v>289.9472632282857</v>
       </c>
       <c r="K32" t="n">
-        <v>701.2350477679913</v>
+        <v>701.235047767992</v>
       </c>
       <c r="L32" t="n">
-        <v>1132.201502326892</v>
+        <v>1236.379821986922</v>
       </c>
       <c r="M32" t="n">
-        <v>1722.062699390389</v>
+        <v>1826.241019050419</v>
       </c>
       <c r="N32" t="n">
-        <v>2298.511924781851</v>
+        <v>2298.511924781852</v>
       </c>
       <c r="O32" t="n">
-        <v>2796.39927937616</v>
+        <v>2796.399279376162</v>
       </c>
       <c r="P32" t="n">
-        <v>3150.463119678942</v>
+        <v>3204.441691711097</v>
       </c>
       <c r="Q32" t="n">
-        <v>3405.926644482318</v>
+        <v>3405.926644482311</v>
       </c>
       <c r="R32" t="n">
-        <v>3454.341317132196</v>
+        <v>3454.341317132189</v>
       </c>
       <c r="S32" t="n">
-        <v>3385.646449397037</v>
+        <v>3385.64644939703</v>
       </c>
       <c r="T32" t="n">
-        <v>3269.932484983071</v>
+        <v>3269.932484983065</v>
       </c>
       <c r="U32" t="n">
-        <v>3121.383683075866</v>
+        <v>3121.38368307586</v>
       </c>
       <c r="V32" t="n">
-        <v>2890.697970506375</v>
+        <v>2890.697970506369</v>
       </c>
       <c r="W32" t="n">
-        <v>2634.456601898542</v>
+        <v>2634.456601898537</v>
       </c>
       <c r="X32" t="n">
-        <v>2358.720022954602</v>
+        <v>2358.720022954598</v>
       </c>
       <c r="Y32" t="n">
-        <v>2071.471729065007</v>
+        <v>2071.471729065003</v>
       </c>
     </row>
     <row r="33">
@@ -6762,40 +6762,40 @@
         <v>634.8987854916277</v>
       </c>
       <c r="E33" t="n">
-        <v>487.870775548499</v>
+        <v>487.8707755484988</v>
       </c>
       <c r="F33" t="n">
-        <v>353.1769774983733</v>
+        <v>353.1769774983732</v>
       </c>
       <c r="G33" t="n">
-        <v>224.735883755238</v>
+        <v>224.7358837552379</v>
       </c>
       <c r="H33" t="n">
-        <v>127.5737654525652</v>
+        <v>127.5737654525651</v>
       </c>
       <c r="I33" t="n">
-        <v>69.08682634264392</v>
+        <v>69.08682634264379</v>
       </c>
       <c r="J33" t="n">
-        <v>69.08682634264392</v>
+        <v>69.08682634264379</v>
       </c>
       <c r="K33" t="n">
-        <v>167.3898279424276</v>
+        <v>344.0636277590407</v>
       </c>
       <c r="L33" t="n">
-        <v>594.3735480514733</v>
+        <v>771.0473478680864</v>
       </c>
       <c r="M33" t="n">
-        <v>1150.779924796161</v>
+        <v>1327.453724612774</v>
       </c>
       <c r="N33" t="n">
-        <v>1735.307625701701</v>
+        <v>1911.981425518314</v>
       </c>
       <c r="O33" t="n">
-        <v>2194.52804370759</v>
+        <v>2000.799334672978</v>
       </c>
       <c r="P33" t="n">
-        <v>2550.413796557495</v>
+        <v>2356.685087522883</v>
       </c>
       <c r="Q33" t="n">
         <v>2550.413796557495</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>415.0755583901865</v>
+        <v>415.0755583901826</v>
       </c>
       <c r="C34" t="n">
-        <v>351.7531503864336</v>
+        <v>351.7531503864302</v>
       </c>
       <c r="D34" t="n">
-        <v>304.9748187487631</v>
+        <v>304.9748187487603</v>
       </c>
       <c r="E34" t="n">
-        <v>259.2593660446488</v>
+        <v>259.2593660446465</v>
       </c>
       <c r="F34" t="n">
-        <v>213.0722726049927</v>
+        <v>213.072272604991</v>
       </c>
       <c r="G34" t="n">
-        <v>150.687037239042</v>
+        <v>150.6870372390408</v>
       </c>
       <c r="H34" t="n">
-        <v>99.75023349412406</v>
+        <v>99.75023349412338</v>
       </c>
       <c r="I34" t="n">
-        <v>69.08682634264392</v>
+        <v>69.08682634264379</v>
       </c>
       <c r="J34" t="n">
-        <v>131.0993316713332</v>
+        <v>131.0993316713336</v>
       </c>
       <c r="K34" t="n">
-        <v>296.318964566648</v>
+        <v>296.318964566649</v>
       </c>
       <c r="L34" t="n">
-        <v>536.2144379832719</v>
+        <v>473.8501780020504</v>
       </c>
       <c r="M34" t="n">
-        <v>795.4049143839815</v>
+        <v>733.0406544027605</v>
       </c>
       <c r="N34" t="n">
-        <v>1054.144005635863</v>
+        <v>991.7797456546427</v>
       </c>
       <c r="O34" t="n">
-        <v>1227.801400944058</v>
+        <v>1227.801400944048</v>
       </c>
       <c r="P34" t="n">
-        <v>1423.510294905582</v>
+        <v>1423.510294905573</v>
       </c>
       <c r="Q34" t="n">
-        <v>1509.693077336685</v>
+        <v>1509.693077336676</v>
       </c>
       <c r="R34" t="n">
-        <v>1477.298923527941</v>
+        <v>1477.298923527933</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.081854007463</v>
+        <v>1374.081854007455</v>
       </c>
       <c r="T34" t="n">
-        <v>1248.225983392866</v>
+        <v>1248.225983392858</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.342448238258</v>
+        <v>1067.342448238251</v>
       </c>
       <c r="V34" t="n">
-        <v>912.9007053312471</v>
+        <v>912.9007053312409</v>
       </c>
       <c r="W34" t="n">
-        <v>733.037865383213</v>
+        <v>733.0378653832074</v>
       </c>
       <c r="X34" t="n">
-        <v>608.0789628131556</v>
+        <v>608.0789628131505</v>
       </c>
       <c r="Y34" t="n">
-        <v>492.3373655399995</v>
+        <v>492.337365539995</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1432.622392258135</v>
+        <v>1432.622392258136</v>
       </c>
       <c r="C35" t="n">
-        <v>1205.401451068236</v>
+        <v>1205.401451068237</v>
       </c>
       <c r="D35" t="n">
-        <v>987.2903037727526</v>
+        <v>987.2903037727535</v>
       </c>
       <c r="E35" t="n">
-        <v>747.2174013561529</v>
+        <v>747.2174013561538</v>
       </c>
       <c r="F35" t="n">
-        <v>487.7790281436166</v>
+        <v>487.7790281436176</v>
       </c>
       <c r="G35" t="n">
         <v>226.9250196280298</v>
@@ -6935,13 +6935,13 @@
         <v>54.31775821533927</v>
       </c>
       <c r="J35" t="n">
-        <v>170.9998754409517</v>
+        <v>170.999875440952</v>
       </c>
       <c r="K35" t="n">
-        <v>478.1093403206287</v>
+        <v>478.1093403206289</v>
       </c>
       <c r="L35" t="n">
-        <v>909.0757948795294</v>
+        <v>909.0757948795298</v>
       </c>
       <c r="M35" t="n">
         <v>1394.758672282997</v>
@@ -6953,13 +6953,13 @@
         <v>2260.738612948711</v>
       </c>
       <c r="P35" t="n">
-        <v>2564.602705623616</v>
+        <v>2564.602705623617</v>
       </c>
       <c r="Q35" t="n">
-        <v>2715.887910766963</v>
+        <v>2715.887910766964</v>
       </c>
       <c r="R35" t="n">
-        <v>2715.887910766963</v>
+        <v>2715.887910766964</v>
       </c>
       <c r="S35" t="n">
         <v>2695.612298974531</v>
@@ -6968,16 +6968,16 @@
         <v>2628.317590503292</v>
       </c>
       <c r="U35" t="n">
-        <v>2528.188044538813</v>
+        <v>2528.188044538814</v>
       </c>
       <c r="V35" t="n">
-        <v>2345.921587912048</v>
+        <v>2345.921587912049</v>
       </c>
       <c r="W35" t="n">
-        <v>2138.099475246942</v>
+        <v>2138.099475246943</v>
       </c>
       <c r="X35" t="n">
-        <v>1910.782152245729</v>
+        <v>1910.78215224573</v>
       </c>
       <c r="Y35" t="n">
         <v>1671.953114298861</v>
@@ -6999,7 +6999,7 @@
         <v>620.1297173643231</v>
       </c>
       <c r="E36" t="n">
-        <v>473.1017074211943</v>
+        <v>473.1017074211944</v>
       </c>
       <c r="F36" t="n">
         <v>338.4079093710687</v>
@@ -7014,16 +7014,16 @@
         <v>54.31775821533927</v>
       </c>
       <c r="J36" t="n">
-        <v>54.31775821533927</v>
+        <v>141.1851346860172</v>
       </c>
       <c r="K36" t="n">
-        <v>54.31775821533927</v>
+        <v>416.1619361024141</v>
       </c>
       <c r="L36" t="n">
-        <v>385.8757708895569</v>
+        <v>843.1456562114597</v>
       </c>
       <c r="M36" t="n">
-        <v>942.2821476342442</v>
+        <v>1399.552032956147</v>
       </c>
       <c r="N36" t="n">
         <v>1526.809848539785</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>109.1537458746832</v>
+        <v>85.7044375017811</v>
       </c>
       <c r="C37" t="n">
-        <v>94.25059381365691</v>
+        <v>70.8012854407548</v>
       </c>
       <c r="D37" t="n">
-        <v>94.25059381365691</v>
+        <v>70.8012854407548</v>
       </c>
       <c r="E37" t="n">
-        <v>94.25059381365691</v>
+        <v>70.8012854407548</v>
       </c>
       <c r="F37" t="n">
-        <v>94.25059381365691</v>
+        <v>70.8012854407548</v>
       </c>
       <c r="G37" t="n">
-        <v>80.28461439043281</v>
+        <v>56.83530601753067</v>
       </c>
       <c r="H37" t="n">
         <v>54.31775821533927</v>
@@ -7126,19 +7126,19 @@
         <v>651.7886352210026</v>
       </c>
       <c r="U37" t="n">
-        <v>519.3243560091213</v>
+        <v>495.8750476362194</v>
       </c>
       <c r="V37" t="n">
-        <v>413.3018690448373</v>
+        <v>389.8525606719354</v>
       </c>
       <c r="W37" t="n">
-        <v>281.8582850395298</v>
+        <v>258.4089766666279</v>
       </c>
       <c r="X37" t="n">
-        <v>205.318638412199</v>
+        <v>181.869330039297</v>
       </c>
       <c r="Y37" t="n">
-        <v>137.9962970817696</v>
+        <v>114.5469887088675</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1432.622392258135</v>
+        <v>1432.622392258136</v>
       </c>
       <c r="C38" t="n">
-        <v>1205.401451068235</v>
+        <v>1205.401451068236</v>
       </c>
       <c r="D38" t="n">
-        <v>987.2903037727526</v>
+        <v>987.2903037727535</v>
       </c>
       <c r="E38" t="n">
-        <v>747.217401356153</v>
+        <v>747.2174013561538</v>
       </c>
       <c r="F38" t="n">
-        <v>487.7790281436169</v>
+        <v>487.7790281436176</v>
       </c>
       <c r="G38" t="n">
-        <v>226.9250196280297</v>
+        <v>226.9250196280298</v>
       </c>
       <c r="H38" t="n">
-        <v>54.31775821533925</v>
+        <v>54.31775821533927</v>
       </c>
       <c r="I38" t="n">
-        <v>54.31775821533925</v>
+        <v>54.31775821533927</v>
       </c>
       <c r="J38" t="n">
-        <v>170.9998754409511</v>
+        <v>170.9998754409517</v>
       </c>
       <c r="K38" t="n">
-        <v>478.109340320628</v>
+        <v>478.1093403206287</v>
       </c>
       <c r="L38" t="n">
-        <v>909.0757948795289</v>
+        <v>909.0757948795296</v>
       </c>
       <c r="M38" t="n">
-        <v>1394.758672282996</v>
+        <v>1394.758672282997</v>
       </c>
       <c r="N38" t="n">
-        <v>1867.029578014429</v>
+        <v>1867.02957801443</v>
       </c>
       <c r="O38" t="n">
-        <v>2260.73861294871</v>
+        <v>2260.738612948711</v>
       </c>
       <c r="P38" t="n">
-        <v>2564.602705623616</v>
+        <v>2564.602705623617</v>
       </c>
       <c r="Q38" t="n">
-        <v>2715.887910766963</v>
+        <v>2715.887910766964</v>
       </c>
       <c r="R38" t="n">
-        <v>2715.887910766963</v>
+        <v>2715.887910766964</v>
       </c>
       <c r="S38" t="n">
-        <v>2695.61229897453</v>
+        <v>2695.612298974531</v>
       </c>
       <c r="T38" t="n">
-        <v>2628.317590503291</v>
+        <v>2628.317590503292</v>
       </c>
       <c r="U38" t="n">
-        <v>2528.188044538813</v>
+        <v>2528.188044538815</v>
       </c>
       <c r="V38" t="n">
-        <v>2345.921587912048</v>
+        <v>2345.921587912049</v>
       </c>
       <c r="W38" t="n">
-        <v>2138.099475246942</v>
+        <v>2138.099475246943</v>
       </c>
       <c r="X38" t="n">
-        <v>1910.782152245729</v>
+        <v>1910.78215224573</v>
       </c>
       <c r="Y38" t="n">
-        <v>1671.95311429886</v>
+        <v>1671.953114298861</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.1297173643231</v>
       </c>
       <c r="E39" t="n">
-        <v>473.1017074211943</v>
+        <v>473.1017074211944</v>
       </c>
       <c r="F39" t="n">
         <v>338.4079093710687</v>
@@ -7248,28 +7248,28 @@
         <v>112.8046973252606</v>
       </c>
       <c r="I39" t="n">
-        <v>54.31775821533925</v>
+        <v>54.31775821533927</v>
       </c>
       <c r="J39" t="n">
-        <v>54.31775821533925</v>
+        <v>141.1851346860172</v>
       </c>
       <c r="K39" t="n">
-        <v>152.6207598151229</v>
+        <v>141.1851346860172</v>
       </c>
       <c r="L39" t="n">
-        <v>579.6044799241686</v>
+        <v>568.1688547950629</v>
       </c>
       <c r="M39" t="n">
-        <v>1136.010856668856</v>
+        <v>1124.57523153975</v>
       </c>
       <c r="N39" t="n">
-        <v>1720.538557574396</v>
+        <v>1709.102932445291</v>
       </c>
       <c r="O39" t="n">
-        <v>2179.758975580285</v>
+        <v>2168.32335045118</v>
       </c>
       <c r="P39" t="n">
-        <v>2535.64472843019</v>
+        <v>2524.209103301084</v>
       </c>
       <c r="Q39" t="n">
         <v>2535.64472843019</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>109.1537458746834</v>
+        <v>85.7044375017811</v>
       </c>
       <c r="C40" t="n">
-        <v>70.80128544075465</v>
+        <v>70.8012854407548</v>
       </c>
       <c r="D40" t="n">
-        <v>70.80128544075465</v>
+        <v>70.8012854407548</v>
       </c>
       <c r="E40" t="n">
-        <v>70.80128544075465</v>
+        <v>70.8012854407548</v>
       </c>
       <c r="F40" t="n">
-        <v>70.80128544075465</v>
+        <v>70.8012854407548</v>
       </c>
       <c r="G40" t="n">
-        <v>56.83530601753059</v>
+        <v>56.83530601753067</v>
       </c>
       <c r="H40" t="n">
-        <v>54.31775821533925</v>
+        <v>54.31775821533927</v>
       </c>
       <c r="I40" t="n">
-        <v>54.31775821533925</v>
+        <v>54.31775821533927</v>
       </c>
       <c r="J40" t="n">
-        <v>54.31775821533925</v>
+        <v>54.31775821533927</v>
       </c>
       <c r="K40" t="n">
         <v>115.3590714506252</v>
@@ -7363,19 +7363,19 @@
         <v>651.7886352210026</v>
       </c>
       <c r="U40" t="n">
-        <v>519.3243560091213</v>
+        <v>519.3243560091212</v>
       </c>
       <c r="V40" t="n">
-        <v>413.3018690448374</v>
+        <v>413.3018690448372</v>
       </c>
       <c r="W40" t="n">
-        <v>281.85828503953</v>
+        <v>281.8582850395297</v>
       </c>
       <c r="X40" t="n">
-        <v>205.3186384121992</v>
+        <v>205.3186384121989</v>
       </c>
       <c r="Y40" t="n">
-        <v>137.9962970817697</v>
+        <v>137.9962970817694</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1578.147823947087</v>
+        <v>1263.331040724512</v>
       </c>
       <c r="C41" t="n">
-        <v>1329.765463815484</v>
+        <v>1014.94868059291</v>
       </c>
       <c r="D41" t="n">
-        <v>1090.492897578298</v>
+        <v>775.6761143557235</v>
       </c>
       <c r="E41" t="n">
-        <v>829.2585762199953</v>
+        <v>528.6862307239721</v>
       </c>
       <c r="F41" t="n">
-        <v>548.6587840657561</v>
+        <v>248.0864385697328</v>
       </c>
       <c r="G41" t="n">
-        <v>266.6433566084656</v>
+        <v>248.0864385697328</v>
       </c>
       <c r="H41" t="n">
-        <v>72.87467625407214</v>
+        <v>54.31775821533927</v>
       </c>
       <c r="I41" t="n">
-        <v>54.31775821533925</v>
+        <v>54.31775821533927</v>
       </c>
       <c r="J41" t="n">
         <v>170.9998754409517</v>
       </c>
       <c r="K41" t="n">
-        <v>478.109340320628</v>
+        <v>478.1093403206287</v>
       </c>
       <c r="L41" t="n">
-        <v>909.0757948795289</v>
+        <v>909.0757948795296</v>
       </c>
       <c r="M41" t="n">
-        <v>1394.758672282996</v>
+        <v>1394.758672282997</v>
       </c>
       <c r="N41" t="n">
-        <v>1867.029578014429</v>
+        <v>1867.02957801443</v>
       </c>
       <c r="O41" t="n">
-        <v>2260.73861294871</v>
+        <v>2260.738612948711</v>
       </c>
       <c r="P41" t="n">
-        <v>2564.602705623616</v>
+        <v>2564.602705623617</v>
       </c>
       <c r="Q41" t="n">
-        <v>2715.887910766963</v>
+        <v>2715.887910766964</v>
       </c>
       <c r="R41" t="n">
-        <v>2715.887910766963</v>
+        <v>2715.887910766964</v>
       </c>
       <c r="S41" t="n">
-        <v>2674.450880032827</v>
+        <v>2674.450880032828</v>
       </c>
       <c r="T41" t="n">
-        <v>2585.994752619885</v>
+        <v>2585.994752619887</v>
       </c>
       <c r="U41" t="n">
-        <v>2531.041828993364</v>
+        <v>2464.703787713705</v>
       </c>
       <c r="V41" t="n">
-        <v>2327.613953424896</v>
+        <v>2261.275912145237</v>
       </c>
       <c r="W41" t="n">
-        <v>2098.630421818087</v>
+        <v>2032.292380538429</v>
       </c>
       <c r="X41" t="n">
-        <v>2098.630421818087</v>
+        <v>1783.813638595513</v>
       </c>
       <c r="Y41" t="n">
-        <v>1838.639964929516</v>
+        <v>1523.823181706941</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.1297173643231</v>
       </c>
       <c r="E42" t="n">
-        <v>473.1017074211943</v>
+        <v>473.1017074211944</v>
       </c>
       <c r="F42" t="n">
         <v>338.4079093710687</v>
@@ -7485,25 +7485,25 @@
         <v>112.8046973252606</v>
       </c>
       <c r="I42" t="n">
-        <v>54.31775821533925</v>
+        <v>54.31775821533927</v>
       </c>
       <c r="J42" t="n">
-        <v>54.31775821533925</v>
+        <v>54.31775821533927</v>
       </c>
       <c r="K42" t="n">
-        <v>54.31775821533925</v>
+        <v>329.2945596317361</v>
       </c>
       <c r="L42" t="n">
-        <v>385.8757708895569</v>
+        <v>756.2782797407818</v>
       </c>
       <c r="M42" t="n">
-        <v>942.2821476342442</v>
+        <v>1312.684656485469</v>
       </c>
       <c r="N42" t="n">
-        <v>1526.809848539785</v>
+        <v>1882.695601389689</v>
       </c>
       <c r="O42" t="n">
-        <v>1986.030266545673</v>
+        <v>2341.916019395578</v>
       </c>
       <c r="P42" t="n">
         <v>2341.916019395578</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>209.5016312557166</v>
+        <v>209.5016312557169</v>
       </c>
       <c r="C43" t="n">
-        <v>173.4370602529874</v>
+        <v>173.4370602529875</v>
       </c>
       <c r="D43" t="n">
-        <v>153.9165656163405</v>
+        <v>153.9165656163407</v>
       </c>
       <c r="E43" t="n">
-        <v>135.4589499132498</v>
+        <v>135.4589499132499</v>
       </c>
       <c r="F43" t="n">
-        <v>116.5296934746173</v>
+        <v>116.5296934746174</v>
       </c>
       <c r="G43" t="n">
-        <v>81.40229510969019</v>
+        <v>81.40229510969026</v>
       </c>
       <c r="H43" t="n">
-        <v>57.7233283657958</v>
+        <v>57.72332836579585</v>
       </c>
       <c r="I43" t="n">
-        <v>54.31775821533925</v>
+        <v>54.31775821533927</v>
       </c>
       <c r="J43" t="n">
-        <v>67.30586052825331</v>
+        <v>54.31775821533927</v>
       </c>
       <c r="K43" t="n">
-        <v>128.3471737635392</v>
+        <v>115.3590714506252</v>
       </c>
       <c r="L43" t="n">
-        <v>394.9580532248664</v>
+        <v>251.0762252072202</v>
       </c>
       <c r="M43" t="n">
-        <v>549.970209965547</v>
+        <v>406.0883819479009</v>
       </c>
       <c r="N43" t="n">
-        <v>835.424707262132</v>
+        <v>591.6327930815938</v>
       </c>
       <c r="O43" t="n">
-        <v>967.2680428915079</v>
+        <v>723.4761287109698</v>
       </c>
       <c r="P43" t="n">
-        <v>1058.798617193003</v>
+        <v>945.9004287171971</v>
       </c>
       <c r="Q43" t="n">
-        <v>1058.798617193003</v>
+        <v>1058.798617193004</v>
       </c>
       <c r="R43" t="n">
-        <v>1053.662300385282</v>
+        <v>1053.662300385283</v>
       </c>
       <c r="S43" t="n">
-        <v>977.703067865828</v>
+        <v>977.7030678658283</v>
       </c>
       <c r="T43" t="n">
-        <v>879.1050342522541</v>
+        <v>879.1050342522544</v>
       </c>
       <c r="U43" t="n">
-        <v>725.4793360986698</v>
+        <v>725.4793360986702</v>
       </c>
       <c r="V43" t="n">
-        <v>598.2954301926828</v>
+        <v>598.2954301926832</v>
       </c>
       <c r="W43" t="n">
-        <v>445.6904272456724</v>
+        <v>445.6904272456727</v>
       </c>
       <c r="X43" t="n">
-        <v>347.9893616766385</v>
+        <v>347.9893616766389</v>
       </c>
       <c r="Y43" t="n">
-        <v>259.505601404506</v>
+        <v>259.5056014045063</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1316.913502588784</v>
+        <v>1365.82222555396</v>
       </c>
       <c r="C44" t="n">
-        <v>1068.531142457181</v>
+        <v>1117.439865422358</v>
       </c>
       <c r="D44" t="n">
-        <v>829.2585762199955</v>
+        <v>878.1672991851716</v>
       </c>
       <c r="E44" t="n">
-        <v>829.2585762199955</v>
+        <v>616.9329778268689</v>
       </c>
       <c r="F44" t="n">
-        <v>548.6587840657562</v>
+        <v>336.3331856726297</v>
       </c>
       <c r="G44" t="n">
-        <v>266.6433566084658</v>
+        <v>54.31775821533927</v>
       </c>
       <c r="H44" t="n">
-        <v>72.87467625407218</v>
+        <v>54.31775821533927</v>
       </c>
       <c r="I44" t="n">
         <v>54.31775821533927</v>
       </c>
       <c r="J44" t="n">
-        <v>170.9998754409517</v>
+        <v>170.9998754409515</v>
       </c>
       <c r="K44" t="n">
-        <v>478.1093403206287</v>
+        <v>478.1093403206285</v>
       </c>
       <c r="L44" t="n">
         <v>909.0757948795293</v>
@@ -7688,10 +7688,10 @@
         <v>2032.292380538428</v>
       </c>
       <c r="X44" t="n">
-        <v>1837.396100459784</v>
+        <v>1783.813638595512</v>
       </c>
       <c r="Y44" t="n">
-        <v>1577.405643571212</v>
+        <v>1626.314366536389</v>
       </c>
     </row>
     <row r="45">
@@ -7725,16 +7725,16 @@
         <v>54.31775821533927</v>
       </c>
       <c r="J45" t="n">
-        <v>54.31775821533927</v>
+        <v>141.1851346860172</v>
       </c>
       <c r="K45" t="n">
-        <v>329.2945596317361</v>
+        <v>416.1619361024141</v>
       </c>
       <c r="L45" t="n">
-        <v>756.2782797407818</v>
+        <v>843.1456562114597</v>
       </c>
       <c r="M45" t="n">
-        <v>1312.684656485469</v>
+        <v>942.2821476342442</v>
       </c>
       <c r="N45" t="n">
         <v>1526.809848539785</v>
@@ -7816,7 +7816,7 @@
         <v>406.0883819479009</v>
       </c>
       <c r="N46" t="n">
-        <v>560.6491535397537</v>
+        <v>691.5428792444858</v>
       </c>
       <c r="O46" t="n">
         <v>823.3862148738617</v>
@@ -8213,22 +8213,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>147.099797427931</v>
       </c>
       <c r="K5" t="n">
-        <v>178.8230039740467</v>
+        <v>178.8230039740451</v>
       </c>
       <c r="L5" t="n">
-        <v>191.5602121631146</v>
+        <v>191.5602121631129</v>
       </c>
       <c r="M5" t="n">
-        <v>187.1563144971591</v>
+        <v>187.1563144971575</v>
       </c>
       <c r="N5" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O5" t="n">
-        <v>186.9547967801205</v>
+        <v>186.9547967801189</v>
       </c>
       <c r="P5" t="n">
         <v>187.8768090511565</v>
@@ -8295,13 +8295,13 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>111.9961691666651</v>
       </c>
       <c r="L6" t="n">
-        <v>112.5754335711478</v>
+        <v>112.5754335711462</v>
       </c>
       <c r="M6" t="n">
-        <v>115.4839025616399</v>
+        <v>115.4839025616383</v>
       </c>
       <c r="N6" t="n">
         <v>106.7151410677083</v>
@@ -8313,7 +8313,7 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>113.7351914448908</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8374,13 +8374,13 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K7" t="n">
-        <v>104.82327226356</v>
+        <v>104.8232722635584</v>
       </c>
       <c r="L7" t="n">
-        <v>109.5937994785061</v>
+        <v>109.5937994785045</v>
       </c>
       <c r="M7" t="n">
-        <v>112.8771994574291</v>
+        <v>112.8771994574258</v>
       </c>
       <c r="N7" t="n">
         <v>103.744504878002</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>156.705044744887</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K8" t="n">
-        <v>188.8326827569781</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L8" t="n">
         <v>191.5602121631146</v>
@@ -8462,16 +8462,16 @@
         <v>197.1659932800904</v>
       </c>
       <c r="N8" t="n">
-        <v>196.4077929551615</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
-        <v>186.9547967801205</v>
+        <v>196.5600440970748</v>
       </c>
       <c r="P8" t="n">
-        <v>187.8768090511565</v>
+        <v>197.8864878340879</v>
       </c>
       <c r="Q8" t="n">
-        <v>180.6233730229902</v>
+        <v>190.6330518059216</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8529,10 +8529,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>113.0652504495981</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>121.601416483621</v>
       </c>
       <c r="L9" t="n">
         <v>112.5754335711478</v>
@@ -8541,13 +8541,13 @@
         <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
-        <v>116.3203883846627</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O9" t="n">
         <v>125.8691273940425</v>
       </c>
       <c r="P9" t="n">
-        <v>118.8638848070747</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
         <v>123.7448702278239</v>
@@ -8614,19 +8614,19 @@
         <v>104.82327226356</v>
       </c>
       <c r="L10" t="n">
-        <v>119.1990467954604</v>
+        <v>119.6034782614375</v>
       </c>
       <c r="M10" t="n">
-        <v>122.8868782403605</v>
+        <v>122.4824467743834</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7541836609333</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O10" t="n">
         <v>122.5056162750536</v>
       </c>
       <c r="P10" t="n">
-        <v>111.9040032899324</v>
+        <v>121.9136820728638</v>
       </c>
       <c r="Q10" t="n">
         <v>84.9458458910769</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.9648752533803</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
@@ -8705,10 +8705,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>418.3383206229274</v>
+        <v>236.2745000807325</v>
       </c>
       <c r="Q11" t="n">
-        <v>211.8063917859958</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>76.17352122467494</v>
+        <v>76.17352122467497</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8775,10 +8775,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>231.2726345404288</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>623.1450866466196</v>
+        <v>249.0011383120492</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8933,7 +8933,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>584.3675935406823</v>
+        <v>555.1171115271209</v>
       </c>
       <c r="N14" t="n">
         <v>568.5510017355793</v>
@@ -8942,7 +8942,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
-        <v>389.0878386093658</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
         <v>123.1961493292429</v>
@@ -9009,10 +9009,10 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>50.79576191566293</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>574.8244968014072</v>
+        <v>339.2133745039995</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>77.41490937517767</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9164,7 +9164,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>239.325215800319</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
         <v>542.9595789155856</v>
@@ -9179,7 +9179,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>418.3383206229274</v>
+        <v>236.2745000807325</v>
       </c>
       <c r="Q17" t="n">
         <v>276.0094878578761</v>
@@ -9240,19 +9240,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>133.3262598689386</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>343.8048081163522</v>
+        <v>66.05046325130486</v>
       </c>
       <c r="L18" t="n">
-        <v>50.79576191566291</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>439.0106584592401</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9407,10 +9407,10 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>402.3037729984871</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N20" t="n">
-        <v>568.5510017355793</v>
+        <v>386.4871811933845</v>
       </c>
       <c r="O20" t="n">
         <v>495.0402356415689</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>76.17352122467497</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9486,7 +9486,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>231.2726345404296</v>
+        <v>143.5278098225731</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>101.9648752533803</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L23" t="n">
-        <v>542.9595789155856</v>
+        <v>360.8957583733908</v>
       </c>
       <c r="M23" t="n">
         <v>584.3675935406823</v>
@@ -9656,7 +9656,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>211.8063917859959</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9720,13 +9720,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>107.9485005599261</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>249.0011383120492</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9957,13 +9957,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>482.0924488944969</v>
+        <v>215.889240523496</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>161.2563135941927</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>273.1004740566038</v>
+        <v>77.41490937517767</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,13 +10188,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>76.17352122467497</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>66.05046325130482</v>
       </c>
       <c r="L30" t="n">
-        <v>482.0924488944969</v>
+        <v>297.9580207071171</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
@@ -10203,13 +10203,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
-        <v>333.5626314066038</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>77.41490937517767</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10428,7 +10428,7 @@
         <v>76.17352122467497</v>
       </c>
       <c r="K33" t="n">
-        <v>165.3464244632076</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10440,13 +10440,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>512.0210150597484</v>
+        <v>137.8770667251778</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>77.41490937517767</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236962</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
@@ -10662,19 +10662,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>76.17352122467497</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>66.05046325130486</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>385.7028454249736</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>161.2563135941925</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236953</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10838,7 +10838,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P38" t="n">
-        <v>418.3383206229274</v>
+        <v>418.3383206229278</v>
       </c>
       <c r="Q38" t="n">
         <v>276.0094878578761</v>
@@ -10899,10 +10899,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>76.17352122467497</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>165.3464244632075</v>
+        <v>66.05046325130486</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>77.41490937517767</v>
+        <v>88.96604586922371</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11060,7 +11060,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>421.3890363425135</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L41" t="n">
         <v>542.9595789155856</v>
@@ -11139,22 +11139,22 @@
         <v>76.17352122467497</v>
       </c>
       <c r="K42" t="n">
-        <v>66.05046325130486</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>385.7028454249736</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>608.4816967462963</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>414.0015992319183</v>
+        <v>54.52104079767124</v>
       </c>
       <c r="Q42" t="n">
         <v>273.1004740566038</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236957</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11373,7 +11373,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>76.17352122467497</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -11382,10 +11382,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>143.5278098225728</v>
       </c>
       <c r="N45" t="n">
-        <v>249.001138312049</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -22793,10 +22793,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>10.00967878293136</v>
+        <v>10.00967878293295</v>
       </c>
       <c r="G5" t="n">
-        <v>11.94294668035388</v>
+        <v>11.94294668035548</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>308.7702359084508</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>221.4059562765829</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>47.94631158407883</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>149.3449289052705</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>230.9685595385168</v>
+        <v>89.15649972009345</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>286.9655150454191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>287.4621822983377</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>266.4548033005474</v>
+        <v>1.358136128433443</v>
       </c>
       <c r="E14" t="n">
-        <v>288.1969408704529</v>
+        <v>288.196940870453</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>92.11654757333403</v>
+        <v>308.7702359084508</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>47.94631158407883</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>286.9655150454191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>-8.349468112437026e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -25634,19 +25634,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>14.10199334928589</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>279.1952731827175</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>18.37134885834557</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,7 +25682,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>65.6746608668617</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,7 +25691,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>245.9939545234871</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>258.6219781447197</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>191.8309935508496</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>18.37134885834557</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25928,10 +25928,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>53.04663724563008</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>101.4662729811545</v>
       </c>
     </row>
     <row r="45">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>733663.5387171748</v>
+        <v>733663.5387171743</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>758227.8752409292</v>
+        <v>758227.8752409297</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>828334.7329241413</v>
+        <v>828334.7329241412</v>
       </c>
     </row>
     <row r="11">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>670142.0525688916</v>
+        <v>670142.0525688913</v>
       </c>
       <c r="C2" t="n">
         <v>670142.0525688913</v>
@@ -26320,16 +26320,16 @@
         <v>671536.4008233538</v>
       </c>
       <c r="E2" t="n">
-        <v>606636.4932895023</v>
+        <v>606636.4932895026</v>
       </c>
       <c r="F2" t="n">
-        <v>606636.4932895022</v>
+        <v>606636.4932895029</v>
       </c>
       <c r="G2" t="n">
         <v>671671.0529324088</v>
       </c>
       <c r="H2" t="n">
-        <v>671671.0529324084</v>
+        <v>671671.0529324089</v>
       </c>
       <c r="I2" t="n">
         <v>671671.0529324086</v>
@@ -26338,22 +26338,22 @@
         <v>671671.0529324086</v>
       </c>
       <c r="K2" t="n">
-        <v>671671.0529324086</v>
+        <v>671671.0529324088</v>
       </c>
       <c r="L2" t="n">
-        <v>671671.05293241</v>
+        <v>671671.0529324095</v>
       </c>
       <c r="M2" t="n">
-        <v>671671.0529324092</v>
+        <v>671671.0529324095</v>
       </c>
       <c r="N2" t="n">
         <v>671671.0529324093</v>
       </c>
       <c r="O2" t="n">
-        <v>649963.3338704713</v>
+        <v>649963.3338704717</v>
       </c>
       <c r="P2" t="n">
-        <v>649963.3338704715</v>
+        <v>649963.3338704716</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3109.306520341968</v>
+        <v>3109.306520342463</v>
       </c>
       <c r="E3" t="n">
-        <v>374397.5836627403</v>
+        <v>374397.5836627402</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>50616.42829746717</v>
+        <v>50616.42829746711</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94448.7540558925</v>
+        <v>94448.75405589245</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>52688.1915732431</v>
+        <v>52688.19157324349</v>
       </c>
       <c r="M3" t="n">
         <v>147591.2452609263</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>14736.46536030501</v>
+        <v>14736.46536030509</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,16 +26424,16 @@
         <v>396776.6118112199</v>
       </c>
       <c r="E4" t="n">
-        <v>258356.8472850849</v>
+        <v>258356.847285085</v>
       </c>
       <c r="F4" t="n">
         <v>258356.847285085</v>
       </c>
       <c r="G4" t="n">
-        <v>300544.5852893462</v>
+        <v>300544.5852893461</v>
       </c>
       <c r="H4" t="n">
-        <v>300544.5852893462</v>
+        <v>300544.5852893461</v>
       </c>
       <c r="I4" t="n">
         <v>300544.5852893461</v>
@@ -26445,7 +26445,7 @@
         <v>298554.9100097942</v>
       </c>
       <c r="L4" t="n">
-        <v>298501.2971321294</v>
+        <v>298501.2971321295</v>
       </c>
       <c r="M4" t="n">
         <v>297531.5125653392</v>
@@ -26470,7 +26470,7 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>33627.6</v>
+        <v>33627.5999999999</v>
       </c>
       <c r="D5" t="n">
         <v>34236.18847000223</v>
@@ -26488,25 +26488,25 @@
         <v>55317.65651085394</v>
       </c>
       <c r="I5" t="n">
-        <v>55317.65651085393</v>
+        <v>55317.65651085394</v>
       </c>
       <c r="J5" t="n">
         <v>64627.25466179927</v>
       </c>
       <c r="K5" t="n">
-        <v>64627.25466179927</v>
+        <v>64627.25466179926</v>
       </c>
       <c r="L5" t="n">
-        <v>64236.38002533605</v>
+        <v>64236.380025336</v>
       </c>
       <c r="M5" t="n">
         <v>57041.74109215511</v>
       </c>
       <c r="N5" t="n">
-        <v>57041.7410921551</v>
+        <v>57041.74109215511</v>
       </c>
       <c r="O5" t="n">
-        <v>55280.51195643516</v>
+        <v>55280.51195643518</v>
       </c>
       <c r="P5" t="n">
         <v>55280.51195643517</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>239444.2951651755</v>
+        <v>239439.9265927081</v>
       </c>
       <c r="C6" t="n">
-        <v>239444.2951651753</v>
+        <v>239439.9265927086</v>
       </c>
       <c r="D6" t="n">
-        <v>237414.2940217896</v>
+        <v>237413.9093014775</v>
       </c>
       <c r="E6" t="n">
-        <v>-76116.50353100212</v>
+        <v>-76302.31655855305</v>
       </c>
       <c r="F6" t="n">
-        <v>298281.080131738</v>
+        <v>298095.2671041875</v>
       </c>
       <c r="G6" t="n">
-        <v>265192.3828347414</v>
+        <v>265192.3828347417</v>
       </c>
       <c r="H6" t="n">
-        <v>315808.8111322083</v>
+        <v>315808.8111322089</v>
       </c>
       <c r="I6" t="n">
-        <v>315808.8111322086</v>
+        <v>315808.8111322087</v>
       </c>
       <c r="J6" t="n">
         <v>214040.1342049227</v>
       </c>
       <c r="K6" t="n">
-        <v>308488.8882608152</v>
+        <v>308488.8882608153</v>
       </c>
       <c r="L6" t="n">
-        <v>256245.1842017014</v>
+        <v>256245.1842017004</v>
       </c>
       <c r="M6" t="n">
-        <v>169506.5540139886</v>
+        <v>169506.5540139888</v>
       </c>
       <c r="N6" t="n">
         <v>317097.799274915</v>
       </c>
       <c r="O6" t="n">
-        <v>296489.2508449769</v>
+        <v>296427.2287905145</v>
       </c>
       <c r="P6" t="n">
-        <v>311225.716205282</v>
+        <v>311163.6941508194</v>
       </c>
     </row>
   </sheetData>
@@ -26695,25 +26695,25 @@
         <v>102.6409218245012</v>
       </c>
       <c r="F2" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="G2" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="H2" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="I2" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="J2" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="K2" t="n">
         <v>102.6409218245012</v>
       </c>
       <c r="L2" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="M2" t="n">
         <v>153.1656893025205</v>
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132.2825006662237</v>
+        <v>132.2825006662235</v>
       </c>
       <c r="F3" t="n">
         <v>132.2825006662235</v>
@@ -26762,7 +26762,7 @@
         <v>132.2825006662235</v>
       </c>
       <c r="K3" t="n">
-        <v>132.2825006662235</v>
+        <v>132.2825006662237</v>
       </c>
       <c r="L3" t="n">
         <v>132.2825006662235</v>
@@ -26796,37 +26796,37 @@
         <v>10.00967878293136</v>
       </c>
       <c r="E4" t="n">
-        <v>632.9915740344007</v>
+        <v>632.9915740344009</v>
       </c>
       <c r="F4" t="n">
-        <v>632.9915740344007</v>
+        <v>632.9915740344009</v>
       </c>
       <c r="G4" t="n">
-        <v>632.9915740344007</v>
+        <v>632.9915740344009</v>
       </c>
       <c r="H4" t="n">
-        <v>632.9915740344007</v>
+        <v>632.9915740344009</v>
       </c>
       <c r="I4" t="n">
-        <v>632.9915740344005</v>
+        <v>632.9915740344009</v>
       </c>
       <c r="J4" t="n">
         <v>873.5950080659803</v>
       </c>
       <c r="K4" t="n">
-        <v>873.5950080659803</v>
+        <v>873.5950080659802</v>
       </c>
       <c r="L4" t="n">
-        <v>863.585329283049</v>
+        <v>863.5853292830473</v>
       </c>
       <c r="M4" t="n">
-        <v>678.9719776917408</v>
+        <v>678.9719776917409</v>
       </c>
       <c r="N4" t="n">
-        <v>678.9719776917407</v>
+        <v>678.9719776917409</v>
       </c>
       <c r="O4" t="n">
-        <v>678.9719776917407</v>
+        <v>678.9719776917409</v>
       </c>
       <c r="P4" t="n">
         <v>678.9719776917408</v>
@@ -26917,10 +26917,10 @@
         <v>102.6409218245012</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>63.27053537183396</v>
+        <v>63.27053537183389</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>39.37038645266728</v>
+        <v>39.37038645266735</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>65.86023946655388</v>
+        <v>65.86023946655436</v>
       </c>
       <c r="M2" t="n">
-        <v>47.93506338329934</v>
+        <v>47.93506338329877</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>18.42058170038126</v>
+        <v>18.42058170038136</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132.2825006662237</v>
+        <v>132.2825006662235</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-4.567032580280485e-13</v>
       </c>
       <c r="D4" t="n">
-        <v>10.00967878293136</v>
+        <v>10.00967878293295</v>
       </c>
       <c r="E4" t="n">
-        <v>622.9818952514694</v>
+        <v>622.9818952514695</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>240.6034340315798</v>
+        <v>240.6034340315795</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>438.3685436601612</v>
+        <v>438.3685436601631</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>102.6409218245012</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>63.27053537183396</v>
+        <v>63.27053537183389</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.37038645266728</v>
+        <v>39.37038645266735</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>10.00967878293136</v>
+        <v>10.00967878293295</v>
       </c>
       <c r="M4" t="n">
-        <v>622.9818952514694</v>
+        <v>622.9818952514695</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>89.73190363910678</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>185.3566856159528</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
@@ -27701,7 +27701,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>145.557729843699</v>
       </c>
       <c r="F6" t="n">
         <v>133.3468600696244</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>59.18642621600526</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>186.7982527956762</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
@@ -27761,7 +27761,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>190.5961130869185</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27777,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>151.5411742405149</v>
+        <v>151.5411742405133</v>
       </c>
       <c r="E7" t="n">
         <v>150.4889240962943</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>38.15196793284944</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>148.0265635717672</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>230.8471636524795</v>
       </c>
       <c r="U7" t="n">
         <v>284.3183371157911</v>
@@ -27834,10 +27834,10 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>283.2948374677765</v>
       </c>
       <c r="X7" t="n">
-        <v>228.939939463578</v>
+        <v>228.9399394635796</v>
       </c>
       <c r="Y7" t="n">
         <v>219.8148072196457</v>
@@ -27901,13 +27901,13 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>175.3470068330182</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>212.1056780233676</v>
       </c>
       <c r="U8" t="n">
-        <v>243.51995785114</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
@@ -27916,7 +27916,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>369.3933140017156</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -27941,16 +27941,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>124.5303349976185</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>117.4315361940169</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>57.68878367390825</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.17674743307231</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
@@ -27986,16 +27986,16 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>207.493319405667</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>216.101987543218</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>228.8930312960917</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>185.928139458052</v>
       </c>
       <c r="Y9" t="n">
         <v>190.5961130869169</v>
@@ -28056,28 +28056,28 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>139.2100384997596</v>
       </c>
       <c r="S10" t="n">
-        <v>201.5629861874179</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>220.8374848695466</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>248.1182726142302</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>273.2851586848435</v>
       </c>
       <c r="X10" t="n">
-        <v>218.9302606806466</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>210.9982821476397</v>
+        <v>209.8051284367143</v>
       </c>
     </row>
     <row r="11">
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>56.32691617187031</v>
+        <v>56.32691617187034</v>
       </c>
       <c r="S11" t="n">
         <v>102.6409218245012</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="C14" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="D14" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="E14" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="F14" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="G14" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="I14" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>56.32691617187036</v>
+        <v>56.32691617187034</v>
       </c>
       <c r="S14" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="T14" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="U14" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="V14" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="W14" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="X14" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="Y14" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="C16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="D16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="E16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="F16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="G16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="H16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="I16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="J16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="K16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="L16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="M16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245016</v>
       </c>
       <c r="N16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="O16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="P16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="Q16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="R16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="S16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="T16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="U16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="V16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="W16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="X16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="Y16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="C17" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="D17" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="E17" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="F17" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="G17" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="H17" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="I17" t="n">
         <v>150.5872334085801</v>
@@ -28612,25 +28612,25 @@
         <v>56.32691617187034</v>
       </c>
       <c r="S17" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="T17" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="U17" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="V17" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="W17" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="X17" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
     </row>
     <row r="18">
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="C19" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="H19" t="n">
         <v>155.6580616266899</v>
@@ -28770,25 +28770,25 @@
         <v>137.300838189878</v>
       </c>
       <c r="S19" t="n">
-        <v>12.74659064484524</v>
+        <v>12.74659064484635</v>
       </c>
       <c r="T19" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="U19" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="V19" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="W19" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="X19" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="C20" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="D20" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="E20" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="F20" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="G20" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="H20" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="I20" t="n">
         <v>150.5872334085801</v>
@@ -28849,25 +28849,25 @@
         <v>56.32691617187034</v>
       </c>
       <c r="S20" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="T20" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="U20" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="V20" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="W20" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="X20" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="Y20" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
     </row>
     <row r="21">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="C22" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28971,7 +28971,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="H22" t="n">
         <v>155.6580616266899</v>
@@ -29007,25 +29007,25 @@
         <v>137.300838189878</v>
       </c>
       <c r="S22" t="n">
-        <v>165.9114571963352</v>
+        <v>12.74659064484635</v>
       </c>
       <c r="T22" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="U22" t="n">
-        <v>12.74659064484524</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="V22" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="W22" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="X22" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="C23" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="D23" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="E23" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="F23" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="G23" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="H23" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="I23" t="n">
         <v>150.5872334085801</v>
@@ -29086,25 +29086,25 @@
         <v>56.32691617187034</v>
       </c>
       <c r="S23" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="T23" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="U23" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="V23" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="W23" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="X23" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="Y23" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
     </row>
     <row r="24">
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="C25" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29208,7 +29208,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="H25" t="n">
         <v>155.6580616266899</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>18.1773103322481</v>
       </c>
       <c r="R25" t="n">
         <v>137.300838189878</v>
       </c>
       <c r="S25" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="T25" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="U25" t="n">
-        <v>30.92390097709338</v>
+        <v>12.74659064484632</v>
       </c>
       <c r="V25" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="W25" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="X25" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="Y25" t="n">
-        <v>165.9114571963352</v>
+        <v>165.9114571963351</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="C26" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="D26" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="E26" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="F26" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="G26" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="I26" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="J26" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="K26" t="n">
-        <v>5.828106290020571</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="L26" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="M26" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="N26" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="O26" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="P26" t="n">
-        <v>102.6409218245013</v>
+        <v>5.828106290020798</v>
       </c>
       <c r="Q26" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="R26" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="S26" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="T26" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="U26" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="V26" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="W26" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="X26" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="Y26" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="C28" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="D28" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="E28" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="F28" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="G28" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="H28" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="I28" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="J28" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="K28" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="L28" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="M28" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="N28" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="O28" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="P28" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="R28" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="S28" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="T28" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="U28" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="V28" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="W28" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="X28" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="Y28" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
     </row>
     <row r="29">
@@ -29542,7 +29542,7 @@
         <v>102.6409218245012</v>
       </c>
       <c r="M29" t="n">
-        <v>102.6409218245012</v>
+        <v>5.828106290019775</v>
       </c>
       <c r="N29" t="n">
         <v>102.6409218245012</v>
@@ -29551,7 +29551,7 @@
         <v>102.6409218245012</v>
       </c>
       <c r="P29" t="n">
-        <v>5.828106290020798</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="Q29" t="n">
         <v>102.6409218245012</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="C32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="D32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="E32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="F32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="G32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="H32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="I32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="J32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="K32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="M32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="N32" t="n">
-        <v>105.2306259192212</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="P32" t="n">
-        <v>50.70681578573385</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="Q32" t="n">
-        <v>105.2306259192212</v>
+        <v>50.70681578572442</v>
       </c>
       <c r="R32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="S32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="T32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="U32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="V32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="W32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="X32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="Y32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="C34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="D34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="E34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="F34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="G34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="H34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="I34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="J34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="K34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="L34" t="n">
-        <v>105.2306259192212</v>
+        <v>42.23642391798623</v>
       </c>
       <c r="M34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="N34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="O34" t="n">
-        <v>42.23642391799859</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="P34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="Q34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="R34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="S34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="T34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="U34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="V34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="W34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="X34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
       <c r="Y34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192217</v>
       </c>
     </row>
     <row r="35">
@@ -30159,7 +30159,7 @@
         <v>153.1656893025205</v>
       </c>
       <c r="H37" t="n">
-        <v>129.9508740133473</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="I37" t="n">
         <v>135.5873989991865</v>
@@ -30198,7 +30198,7 @@
         <v>153.1656893025205</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1656893025205</v>
+        <v>129.9508740133476</v>
       </c>
       <c r="V37" t="n">
         <v>153.1656893025205</v>
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>129.9508740133476</v>
+      </c>
+      <c r="C40" t="n">
         <v>153.1656893025205</v>
-      </c>
-      <c r="C40" t="n">
-        <v>129.9508740133471</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30639,28 +30639,28 @@
         <v>132.2158845502345</v>
       </c>
       <c r="J43" t="n">
-        <v>55.7110269133876</v>
+        <v>42.59173164781785</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>31.29660559781837</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
         <v>132.2158845502345</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
+      <c r="Q43" t="n">
         <v>132.2158845502345</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>18.1773103322481</v>
       </c>
       <c r="R43" t="n">
         <v>132.2158845502345</v>
@@ -30888,10 +30888,10 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="O46" t="n">
-        <v>132.2158845502345</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>31.29660559781834</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5317889474019039</v>
+        <v>0.5317889474019033</v>
       </c>
       <c r="H11" t="n">
-        <v>5.446183557579749</v>
+        <v>5.446183557579744</v>
       </c>
       <c r="I11" t="n">
-        <v>20.50179339471192</v>
+        <v>20.5017933947119</v>
       </c>
       <c r="J11" t="n">
-        <v>45.13492217455238</v>
+        <v>45.13492217455233</v>
       </c>
       <c r="K11" t="n">
-        <v>67.64554831807499</v>
+        <v>67.6455483180749</v>
       </c>
       <c r="L11" t="n">
-        <v>83.92028431712602</v>
+        <v>83.92028431712592</v>
       </c>
       <c r="M11" t="n">
-        <v>93.37748601048462</v>
+        <v>93.37748601048452</v>
       </c>
       <c r="N11" t="n">
-        <v>94.88843135729029</v>
+        <v>94.88843135729019</v>
       </c>
       <c r="O11" t="n">
-        <v>89.6004550115626</v>
+        <v>89.6004550115625</v>
       </c>
       <c r="P11" t="n">
-        <v>76.47191537257808</v>
+        <v>76.471915372578</v>
       </c>
       <c r="Q11" t="n">
-        <v>57.42722369374739</v>
+        <v>57.42722369374732</v>
       </c>
       <c r="R11" t="n">
-        <v>33.40498746723487</v>
+        <v>33.40498746723484</v>
       </c>
       <c r="S11" t="n">
-        <v>12.1181406389209</v>
+        <v>12.11814063892088</v>
       </c>
       <c r="T11" t="n">
-        <v>2.327906117251835</v>
+        <v>2.327906117251833</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0425431157921523</v>
+        <v>0.04254311579215225</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2845321712443302</v>
+        <v>0.2845321712443299</v>
       </c>
       <c r="H12" t="n">
-        <v>2.747981759122874</v>
+        <v>2.747981759122871</v>
       </c>
       <c r="I12" t="n">
-        <v>9.796392738017509</v>
+        <v>9.7963927380175</v>
       </c>
       <c r="J12" t="n">
-        <v>26.88205044199174</v>
+        <v>26.88205044199172</v>
       </c>
       <c r="K12" t="n">
-        <v>45.94570591536186</v>
+        <v>45.94570591536181</v>
       </c>
       <c r="L12" t="n">
-        <v>61.77967165548495</v>
+        <v>61.77967165548488</v>
       </c>
       <c r="M12" t="n">
-        <v>72.0939628630919</v>
+        <v>72.09396286309182</v>
       </c>
       <c r="N12" t="n">
-        <v>74.00207553779622</v>
+        <v>74.00207553779613</v>
       </c>
       <c r="O12" t="n">
-        <v>67.6974416381192</v>
+        <v>67.69744163811913</v>
       </c>
       <c r="P12" t="n">
-        <v>54.33316522647215</v>
+        <v>54.33316522647208</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.32028206971486</v>
+        <v>36.32028206971481</v>
       </c>
       <c r="R12" t="n">
-        <v>17.66595357953833</v>
+        <v>17.66595357953831</v>
       </c>
       <c r="S12" t="n">
-        <v>5.285060286051481</v>
+        <v>5.285060286051475</v>
       </c>
       <c r="T12" t="n">
-        <v>1.146864321813769</v>
+        <v>1.146864321813768</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01871922179239015</v>
+        <v>0.01871922179239013</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.238542214316141</v>
+        <v>0.2385422143161408</v>
       </c>
       <c r="H13" t="n">
-        <v>2.120857141828965</v>
+        <v>2.120857141828962</v>
       </c>
       <c r="I13" t="n">
-        <v>7.173614954161771</v>
+        <v>7.173614954161764</v>
       </c>
       <c r="J13" t="n">
-        <v>16.86493455215117</v>
+        <v>16.86493455215115</v>
       </c>
       <c r="K13" t="n">
-        <v>27.7142681723662</v>
+        <v>27.71426817236617</v>
       </c>
       <c r="L13" t="n">
-        <v>35.4647215720561</v>
+        <v>35.46472157205606</v>
       </c>
       <c r="M13" t="n">
-        <v>37.39257637684745</v>
+        <v>37.39257637684741</v>
       </c>
       <c r="N13" t="n">
-        <v>36.50346448712368</v>
+        <v>36.50346448712364</v>
       </c>
       <c r="O13" t="n">
-        <v>33.7168577107942</v>
+        <v>33.71685771079417</v>
       </c>
       <c r="P13" t="n">
-        <v>28.8505965387449</v>
+        <v>28.85059653874487</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.97465760059978</v>
+        <v>19.97465760059976</v>
       </c>
       <c r="R13" t="n">
-        <v>10.72572538188757</v>
+        <v>10.72572538188756</v>
       </c>
       <c r="S13" t="n">
-        <v>4.157140225854929</v>
+        <v>4.157140225854925</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01922582480533</v>
+        <v>1.019225824805329</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01301139350815316</v>
+        <v>0.01301139350815315</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5317889474019031</v>
+        <v>0.5317889474019033</v>
       </c>
       <c r="H14" t="n">
-        <v>5.446183557579741</v>
+        <v>5.446183557579744</v>
       </c>
       <c r="I14" t="n">
-        <v>20.50179339471189</v>
+        <v>20.5017933947119</v>
       </c>
       <c r="J14" t="n">
-        <v>45.13492217455231</v>
+        <v>45.13492217455233</v>
       </c>
       <c r="K14" t="n">
-        <v>67.64554831807487</v>
+        <v>67.6455483180749</v>
       </c>
       <c r="L14" t="n">
-        <v>83.92028431712589</v>
+        <v>83.92028431712592</v>
       </c>
       <c r="M14" t="n">
-        <v>93.37748601048447</v>
+        <v>93.37748601048452</v>
       </c>
       <c r="N14" t="n">
-        <v>94.88843135729014</v>
+        <v>94.88843135729019</v>
       </c>
       <c r="O14" t="n">
-        <v>89.60045501156246</v>
+        <v>89.6004550115625</v>
       </c>
       <c r="P14" t="n">
-        <v>76.47191537257797</v>
+        <v>76.471915372578</v>
       </c>
       <c r="Q14" t="n">
-        <v>57.4272236937473</v>
+        <v>57.42722369374732</v>
       </c>
       <c r="R14" t="n">
-        <v>33.40498746723483</v>
+        <v>33.40498746723484</v>
       </c>
       <c r="S14" t="n">
         <v>12.11814063892088</v>
       </c>
       <c r="T14" t="n">
-        <v>2.327906117251832</v>
+        <v>2.327906117251833</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04254311579215223</v>
+        <v>0.04254311579215225</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2845321712443298</v>
+        <v>0.2845321712443299</v>
       </c>
       <c r="H15" t="n">
-        <v>2.74798175912287</v>
+        <v>2.747981759122871</v>
       </c>
       <c r="I15" t="n">
-        <v>9.796392738017495</v>
+        <v>9.7963927380175</v>
       </c>
       <c r="J15" t="n">
-        <v>26.88205044199171</v>
+        <v>26.88205044199172</v>
       </c>
       <c r="K15" t="n">
-        <v>45.9457059153618</v>
+        <v>45.94570591536181</v>
       </c>
       <c r="L15" t="n">
-        <v>61.77967165548485</v>
+        <v>61.77967165548488</v>
       </c>
       <c r="M15" t="n">
-        <v>72.09396286309179</v>
+        <v>72.09396286309182</v>
       </c>
       <c r="N15" t="n">
-        <v>74.0020755377961</v>
+        <v>74.00207553779613</v>
       </c>
       <c r="O15" t="n">
-        <v>67.6974416381191</v>
+        <v>67.69744163811913</v>
       </c>
       <c r="P15" t="n">
-        <v>54.33316522647206</v>
+        <v>54.33316522647208</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.3202820697148</v>
+        <v>36.32028206971481</v>
       </c>
       <c r="R15" t="n">
         <v>17.66595357953831</v>
       </c>
       <c r="S15" t="n">
-        <v>5.285060286051473</v>
+        <v>5.285060286051475</v>
       </c>
       <c r="T15" t="n">
-        <v>1.146864321813767</v>
+        <v>1.146864321813768</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01871922179239012</v>
+        <v>0.01871922179239013</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2385422143161407</v>
+        <v>0.2385422143161408</v>
       </c>
       <c r="H16" t="n">
-        <v>2.120857141828961</v>
+        <v>2.120857141828962</v>
       </c>
       <c r="I16" t="n">
-        <v>7.17361495416176</v>
+        <v>7.173614954161764</v>
       </c>
       <c r="J16" t="n">
-        <v>16.86493455215114</v>
+        <v>16.86493455215115</v>
       </c>
       <c r="K16" t="n">
-        <v>27.71426817236616</v>
+        <v>27.71426817236617</v>
       </c>
       <c r="L16" t="n">
-        <v>35.46472157205605</v>
+        <v>35.46472157205606</v>
       </c>
       <c r="M16" t="n">
-        <v>37.39257637684739</v>
+        <v>37.39257637684741</v>
       </c>
       <c r="N16" t="n">
-        <v>36.50346448712363</v>
+        <v>36.50346448712364</v>
       </c>
       <c r="O16" t="n">
-        <v>33.71685771079415</v>
+        <v>33.71685771079417</v>
       </c>
       <c r="P16" t="n">
-        <v>28.85059653874486</v>
+        <v>28.85059653874487</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.97465760059974</v>
+        <v>19.97465760059976</v>
       </c>
       <c r="R16" t="n">
         <v>10.72572538188756</v>
       </c>
       <c r="S16" t="n">
-        <v>4.157140225854923</v>
+        <v>4.157140225854925</v>
       </c>
       <c r="T16" t="n">
-        <v>1.019225824805328</v>
+        <v>1.019225824805329</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01301139350815314</v>
+        <v>0.01301139350815315</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5317889474019031</v>
+        <v>0.5317889474019033</v>
       </c>
       <c r="H26" t="n">
-        <v>5.446183557579741</v>
+        <v>5.446183557579744</v>
       </c>
       <c r="I26" t="n">
-        <v>20.50179339471189</v>
+        <v>20.5017933947119</v>
       </c>
       <c r="J26" t="n">
-        <v>45.13492217455231</v>
+        <v>45.13492217455233</v>
       </c>
       <c r="K26" t="n">
-        <v>67.64554831807487</v>
+        <v>67.6455483180749</v>
       </c>
       <c r="L26" t="n">
-        <v>83.92028431712589</v>
+        <v>83.92028431712592</v>
       </c>
       <c r="M26" t="n">
-        <v>93.37748601048447</v>
+        <v>93.37748601048452</v>
       </c>
       <c r="N26" t="n">
-        <v>94.88843135729014</v>
+        <v>94.88843135729019</v>
       </c>
       <c r="O26" t="n">
-        <v>89.60045501156246</v>
+        <v>89.6004550115625</v>
       </c>
       <c r="P26" t="n">
-        <v>76.47191537257797</v>
+        <v>76.471915372578</v>
       </c>
       <c r="Q26" t="n">
-        <v>57.4272236937473</v>
+        <v>57.42722369374732</v>
       </c>
       <c r="R26" t="n">
-        <v>33.40498746723483</v>
+        <v>33.40498746723484</v>
       </c>
       <c r="S26" t="n">
         <v>12.11814063892088</v>
       </c>
       <c r="T26" t="n">
-        <v>2.327906117251832</v>
+        <v>2.327906117251833</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04254311579215223</v>
+        <v>0.04254311579215225</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2845321712443298</v>
+        <v>0.2845321712443299</v>
       </c>
       <c r="H27" t="n">
-        <v>2.74798175912287</v>
+        <v>2.747981759122871</v>
       </c>
       <c r="I27" t="n">
-        <v>9.796392738017495</v>
+        <v>9.7963927380175</v>
       </c>
       <c r="J27" t="n">
-        <v>26.88205044199171</v>
+        <v>26.88205044199172</v>
       </c>
       <c r="K27" t="n">
-        <v>45.9457059153618</v>
+        <v>45.94570591536181</v>
       </c>
       <c r="L27" t="n">
-        <v>61.77967165548485</v>
+        <v>61.77967165548488</v>
       </c>
       <c r="M27" t="n">
-        <v>72.09396286309179</v>
+        <v>72.09396286309182</v>
       </c>
       <c r="N27" t="n">
-        <v>74.0020755377961</v>
+        <v>74.00207553779613</v>
       </c>
       <c r="O27" t="n">
-        <v>67.6974416381191</v>
+        <v>67.69744163811913</v>
       </c>
       <c r="P27" t="n">
-        <v>54.33316522647206</v>
+        <v>54.33316522647208</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.3202820697148</v>
+        <v>36.32028206971481</v>
       </c>
       <c r="R27" t="n">
         <v>17.66595357953831</v>
       </c>
       <c r="S27" t="n">
-        <v>5.285060286051473</v>
+        <v>5.285060286051475</v>
       </c>
       <c r="T27" t="n">
-        <v>1.146864321813767</v>
+        <v>1.146864321813768</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01871922179239012</v>
+        <v>0.01871922179239013</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2385422143161407</v>
+        <v>0.2385422143161408</v>
       </c>
       <c r="H28" t="n">
-        <v>2.120857141828961</v>
+        <v>2.120857141828962</v>
       </c>
       <c r="I28" t="n">
-        <v>7.17361495416176</v>
+        <v>7.173614954161764</v>
       </c>
       <c r="J28" t="n">
-        <v>16.86493455215114</v>
+        <v>16.86493455215115</v>
       </c>
       <c r="K28" t="n">
-        <v>27.71426817236616</v>
+        <v>27.71426817236617</v>
       </c>
       <c r="L28" t="n">
-        <v>35.46472157205605</v>
+        <v>35.46472157205606</v>
       </c>
       <c r="M28" t="n">
-        <v>37.39257637684739</v>
+        <v>37.39257637684741</v>
       </c>
       <c r="N28" t="n">
-        <v>36.50346448712363</v>
+        <v>36.50346448712364</v>
       </c>
       <c r="O28" t="n">
-        <v>33.71685771079415</v>
+        <v>33.71685771079417</v>
       </c>
       <c r="P28" t="n">
-        <v>28.85059653874486</v>
+        <v>28.85059653874487</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.97465760059974</v>
+        <v>19.97465760059976</v>
       </c>
       <c r="R28" t="n">
         <v>10.72572538188756</v>
       </c>
       <c r="S28" t="n">
-        <v>4.157140225854923</v>
+        <v>4.157140225854925</v>
       </c>
       <c r="T28" t="n">
-        <v>1.019225824805328</v>
+        <v>1.019225824805329</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01301139350815314</v>
+        <v>0.01301139350815315</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5317889474019033</v>
+        <v>0.5317889474019039</v>
       </c>
       <c r="H29" t="n">
-        <v>5.446183557579744</v>
+        <v>5.446183557579749</v>
       </c>
       <c r="I29" t="n">
-        <v>20.5017933947119</v>
+        <v>20.50179339471192</v>
       </c>
       <c r="J29" t="n">
-        <v>45.13492217455233</v>
+        <v>45.13492217455238</v>
       </c>
       <c r="K29" t="n">
-        <v>67.6455483180749</v>
+        <v>67.64554831807499</v>
       </c>
       <c r="L29" t="n">
-        <v>83.92028431712592</v>
+        <v>83.92028431712602</v>
       </c>
       <c r="M29" t="n">
-        <v>93.37748601048452</v>
+        <v>93.37748601048462</v>
       </c>
       <c r="N29" t="n">
-        <v>94.88843135729019</v>
+        <v>94.88843135729029</v>
       </c>
       <c r="O29" t="n">
-        <v>89.6004550115625</v>
+        <v>89.6004550115626</v>
       </c>
       <c r="P29" t="n">
-        <v>76.471915372578</v>
+        <v>76.47191537257808</v>
       </c>
       <c r="Q29" t="n">
-        <v>57.42722369374732</v>
+        <v>57.42722369374739</v>
       </c>
       <c r="R29" t="n">
-        <v>33.40498746723484</v>
+        <v>33.40498746723487</v>
       </c>
       <c r="S29" t="n">
-        <v>12.11814063892088</v>
+        <v>12.1181406389209</v>
       </c>
       <c r="T29" t="n">
-        <v>2.327906117251833</v>
+        <v>2.327906117251835</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04254311579215225</v>
+        <v>0.0425431157921523</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2845321712443299</v>
+        <v>0.2845321712443302</v>
       </c>
       <c r="H30" t="n">
-        <v>2.747981759122871</v>
+        <v>2.747981759122874</v>
       </c>
       <c r="I30" t="n">
-        <v>9.7963927380175</v>
+        <v>9.796392738017509</v>
       </c>
       <c r="J30" t="n">
-        <v>26.88205044199172</v>
+        <v>26.88205044199174</v>
       </c>
       <c r="K30" t="n">
-        <v>45.94570591536181</v>
+        <v>45.94570591536186</v>
       </c>
       <c r="L30" t="n">
-        <v>61.77967165548488</v>
+        <v>61.77967165548495</v>
       </c>
       <c r="M30" t="n">
-        <v>72.09396286309182</v>
+        <v>72.0939628630919</v>
       </c>
       <c r="N30" t="n">
-        <v>74.00207553779613</v>
+        <v>74.00207553779622</v>
       </c>
       <c r="O30" t="n">
-        <v>67.69744163811913</v>
+        <v>67.6974416381192</v>
       </c>
       <c r="P30" t="n">
-        <v>54.33316522647208</v>
+        <v>54.33316522647215</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.32028206971481</v>
+        <v>36.32028206971486</v>
       </c>
       <c r="R30" t="n">
-        <v>17.66595357953831</v>
+        <v>17.66595357953833</v>
       </c>
       <c r="S30" t="n">
-        <v>5.285060286051475</v>
+        <v>5.285060286051481</v>
       </c>
       <c r="T30" t="n">
-        <v>1.146864321813768</v>
+        <v>1.146864321813769</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01871922179239013</v>
+        <v>0.01871922179239015</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2385422143161408</v>
+        <v>0.238542214316141</v>
       </c>
       <c r="H31" t="n">
-        <v>2.120857141828962</v>
+        <v>2.120857141828965</v>
       </c>
       <c r="I31" t="n">
-        <v>7.173614954161764</v>
+        <v>7.173614954161771</v>
       </c>
       <c r="J31" t="n">
-        <v>16.86493455215115</v>
+        <v>16.86493455215117</v>
       </c>
       <c r="K31" t="n">
-        <v>27.71426817236617</v>
+        <v>27.7142681723662</v>
       </c>
       <c r="L31" t="n">
-        <v>35.46472157205606</v>
+        <v>35.4647215720561</v>
       </c>
       <c r="M31" t="n">
-        <v>37.39257637684741</v>
+        <v>37.39257637684745</v>
       </c>
       <c r="N31" t="n">
-        <v>36.50346448712364</v>
+        <v>36.50346448712368</v>
       </c>
       <c r="O31" t="n">
-        <v>33.71685771079417</v>
+        <v>33.7168577107942</v>
       </c>
       <c r="P31" t="n">
-        <v>28.85059653874487</v>
+        <v>28.8505965387449</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.97465760059976</v>
+        <v>19.97465760059978</v>
       </c>
       <c r="R31" t="n">
-        <v>10.72572538188756</v>
+        <v>10.72572538188757</v>
       </c>
       <c r="S31" t="n">
-        <v>4.157140225854925</v>
+        <v>4.157140225854929</v>
       </c>
       <c r="T31" t="n">
-        <v>1.019225824805329</v>
+        <v>1.01922582480533</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01301139350815315</v>
+        <v>0.01301139350815316</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>-1.593289582579601e-12</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>-1.593289582579601e-12</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>-1.690015151565915e-12</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-1.593289582579601e-12</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>-1.593289582579601e-12</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -34960,7 +34960,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>3.186254037196223e-12</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-1.593289582579601e-12</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-1.593289582579601e-12</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-1.593289582579601e-12</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>-1.657664919249484e-12</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,13 +35094,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-1.593289582579601e-12</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>-1.593289582579601e-12</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>-3.250954501829085e-12</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>9.605247316954339</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>10.00967878293136</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>9.605247316954339</v>
+      </c>
+      <c r="P8" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>9.605247316954339</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,13 +35261,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>9.605247316954339</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="P9" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>10.00967878293136</v>
@@ -35334,19 +35334,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="M10" t="n">
         <v>9.605247316954339</v>
       </c>
-      <c r="M10" t="n">
-        <v>10.00967878293136</v>
-      </c>
       <c r="N10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>117.8607244703156</v>
       </c>
       <c r="K11" t="n">
-        <v>310.2115806865424</v>
+        <v>310.2115806865423</v>
       </c>
       <c r="L11" t="n">
-        <v>435.3196510695969</v>
+        <v>435.3196510695968</v>
       </c>
       <c r="M11" t="n">
-        <v>490.5887650540078</v>
+        <v>490.5887650540077</v>
       </c>
       <c r="N11" t="n">
-        <v>477.0413189206395</v>
+        <v>477.0413189206394</v>
       </c>
       <c r="O11" t="n">
         <v>397.685893873011</v>
       </c>
       <c r="P11" t="n">
-        <v>306.933426944349</v>
+        <v>124.869606402154</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.61024245675299</v>
+        <v>152.8133385286332</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,13 +35492,13 @@
         <v>277.7543448650474</v>
       </c>
       <c r="L12" t="n">
-        <v>431.2966869788341</v>
+        <v>431.296686978834</v>
       </c>
       <c r="M12" t="n">
-        <v>187.8826948418808</v>
+        <v>562.0266431764519</v>
       </c>
       <c r="N12" t="n">
-        <v>590.4320211167075</v>
+        <v>216.288072782137</v>
       </c>
       <c r="O12" t="n">
         <v>463.8590080867564</v>
@@ -35507,7 +35507,7 @@
         <v>359.4805584342471</v>
       </c>
       <c r="Q12" t="n">
-        <v>195.6855646814262</v>
+        <v>195.6855646814261</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.0491901766834</v>
+        <v>60.04919017668337</v>
       </c>
       <c r="K13" t="n">
         <v>164.2988139813557</v>
       </c>
       <c r="L13" t="n">
-        <v>239.728955922072</v>
+        <v>239.7289559220719</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2188579261989</v>
+        <v>259.2188579261988</v>
       </c>
       <c r="N13" t="n">
         <v>258.7629133314232</v>
       </c>
       <c r="O13" t="n">
-        <v>235.8160083188204</v>
+        <v>235.8160083188203</v>
       </c>
       <c r="P13" t="n">
         <v>195.0960473815671</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.46361149225316</v>
+        <v>84.46361149225312</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,16 +35653,16 @@
         <v>435.3196510695968</v>
       </c>
       <c r="M14" t="n">
-        <v>490.5887650540076</v>
+        <v>461.3382830404463</v>
       </c>
       <c r="N14" t="n">
         <v>477.0413189206394</v>
       </c>
       <c r="O14" t="n">
-        <v>397.6858938730109</v>
+        <v>397.685893873011</v>
       </c>
       <c r="P14" t="n">
-        <v>277.6829449307873</v>
+        <v>306.9334269443489</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>87.7448247178565</v>
+        <v>87.74482471785652</v>
       </c>
       <c r="K15" t="n">
-        <v>277.7543448650473</v>
+        <v>277.7543448650474</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>431.296686978834</v>
       </c>
       <c r="M15" t="n">
-        <v>531.4345571028591</v>
+        <v>295.8234348054514</v>
       </c>
       <c r="N15" t="n">
         <v>590.4320211167073</v>
@@ -35744,7 +35744,7 @@
         <v>359.4805584342471</v>
       </c>
       <c r="Q15" t="n">
-        <v>195.6855646814261</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.04919017668341</v>
+        <v>60.04919017668337</v>
       </c>
       <c r="K16" t="n">
         <v>164.2988139813557</v>
       </c>
       <c r="L16" t="n">
-        <v>239.728955922072</v>
+        <v>239.7289559220719</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2188579261989</v>
+        <v>259.2188579261993</v>
       </c>
       <c r="N16" t="n">
         <v>258.7629133314232</v>
       </c>
       <c r="O16" t="n">
-        <v>235.8160083188204</v>
+        <v>235.8160083188203</v>
       </c>
       <c r="P16" t="n">
         <v>195.0960473815671</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.46361149225315</v>
+        <v>84.46361149225312</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>117.8607244703156</v>
       </c>
       <c r="K17" t="n">
-        <v>128.1477601443472</v>
+        <v>310.2115806865423</v>
       </c>
       <c r="L17" t="n">
         <v>435.3196510695968</v>
@@ -35899,7 +35899,7 @@
         <v>397.685893873011</v>
       </c>
       <c r="P17" t="n">
-        <v>306.9334269443489</v>
+        <v>124.869606402154</v>
       </c>
       <c r="Q17" t="n">
         <v>152.8133385286332</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>57.15273864426369</v>
+        <v>87.74482471785652</v>
       </c>
       <c r="K18" t="n">
-        <v>277.7543448650474</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>431.296686978834</v>
       </c>
       <c r="M18" t="n">
         <v>562.0266431764519</v>
       </c>
       <c r="N18" t="n">
-        <v>590.4320211167073</v>
+        <v>406.2975929293279</v>
       </c>
       <c r="O18" t="n">
         <v>463.8590080867564</v>
@@ -36127,10 +36127,10 @@
         <v>435.3196510695968</v>
       </c>
       <c r="M20" t="n">
-        <v>308.5249445118125</v>
+        <v>490.5887650540077</v>
       </c>
       <c r="N20" t="n">
-        <v>477.0413189206394</v>
+        <v>294.9774983784446</v>
       </c>
       <c r="O20" t="n">
         <v>397.685893873011</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>87.74482471785652</v>
       </c>
       <c r="K21" t="n">
         <v>277.7543448650474</v>
@@ -36206,7 +36206,7 @@
         <v>431.296686978834</v>
       </c>
       <c r="M21" t="n">
-        <v>187.8826948418815</v>
+        <v>100.137870124025</v>
       </c>
       <c r="N21" t="n">
         <v>590.4320211167073</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>117.8607244703156</v>
       </c>
       <c r="K23" t="n">
         <v>310.2115806865423</v>
       </c>
       <c r="L23" t="n">
-        <v>435.3196510695968</v>
+        <v>253.2558305274021</v>
       </c>
       <c r="M23" t="n">
         <v>490.5887650540077</v>
@@ -36376,7 +36376,7 @@
         <v>306.9334269443489</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.61024245675299</v>
+        <v>152.8133385286332</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>277.7543448650474</v>
       </c>
       <c r="L24" t="n">
-        <v>57.15273864426323</v>
+        <v>431.296686978834</v>
       </c>
       <c r="M24" t="n">
         <v>562.0266431764519</v>
       </c>
       <c r="N24" t="n">
-        <v>590.4320211167073</v>
+        <v>216.288072782137</v>
       </c>
       <c r="O24" t="n">
         <v>463.8590080867564</v>
@@ -36595,7 +36595,7 @@
         <v>220.5016462948169</v>
       </c>
       <c r="K26" t="n">
-        <v>316.0396869765629</v>
+        <v>412.8525025110436</v>
       </c>
       <c r="L26" t="n">
         <v>537.960572894098</v>
@@ -36610,13 +36610,13 @@
         <v>500.3268156975122</v>
       </c>
       <c r="P26" t="n">
-        <v>409.5743487688502</v>
+        <v>312.7615332343697</v>
       </c>
       <c r="Q26" t="n">
         <v>255.4542603531344</v>
       </c>
       <c r="R26" t="n">
-        <v>46.3140056526309</v>
+        <v>46.31400565263089</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>87.7448247178565</v>
+        <v>87.74482471785652</v>
       </c>
       <c r="K27" t="n">
-        <v>277.7543448650473</v>
+        <v>277.7543448650474</v>
       </c>
       <c r="L27" t="n">
-        <v>431.296686978834</v>
+        <v>165.093478607833</v>
       </c>
       <c r="M27" t="n">
-        <v>562.0266431764518</v>
+        <v>562.0266431764519</v>
       </c>
       <c r="N27" t="n">
-        <v>128.5432480642805</v>
+        <v>590.4320211167073</v>
       </c>
       <c r="O27" t="n">
         <v>463.8590080867564</v>
@@ -36692,7 +36692,7 @@
         <v>359.4805584342471</v>
       </c>
       <c r="Q27" t="n">
-        <v>195.6855646814261</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.04919017668341</v>
+        <v>60.04919017668338</v>
       </c>
       <c r="K28" t="n">
         <v>164.2988139813557</v>
       </c>
       <c r="L28" t="n">
-        <v>239.7289559220719</v>
+        <v>239.728955922072</v>
       </c>
       <c r="M28" t="n">
         <v>259.2188579261989</v>
@@ -36765,13 +36765,13 @@
         <v>258.7629133314232</v>
       </c>
       <c r="O28" t="n">
-        <v>235.8160083188204</v>
+        <v>235.8160083188203</v>
       </c>
       <c r="P28" t="n">
         <v>195.0960473815671</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.46361149225315</v>
+        <v>84.46361149225314</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,10 +36835,10 @@
         <v>412.8525025110436</v>
       </c>
       <c r="L29" t="n">
-        <v>537.960572894098</v>
+        <v>537.9605728940982</v>
       </c>
       <c r="M29" t="n">
-        <v>593.2296868785089</v>
+        <v>496.4168713440276</v>
       </c>
       <c r="N29" t="n">
         <v>579.6822407451407</v>
@@ -36847,13 +36847,13 @@
         <v>500.3268156975122</v>
       </c>
       <c r="P29" t="n">
-        <v>312.7615332343697</v>
+        <v>409.5743487688502</v>
       </c>
       <c r="Q29" t="n">
-        <v>255.4542603531344</v>
+        <v>255.4542603531345</v>
       </c>
       <c r="R29" t="n">
-        <v>46.31400565263089</v>
+        <v>46.31400565263091</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>87.74482471785655</v>
       </c>
       <c r="K30" t="n">
-        <v>277.7543448650474</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>431.296686978834</v>
+        <v>247.1622587914543</v>
       </c>
       <c r="M30" t="n">
         <v>562.0266431764519</v>
       </c>
       <c r="N30" t="n">
-        <v>590.4320211167073</v>
+        <v>590.4320211167075</v>
       </c>
       <c r="O30" t="n">
-        <v>285.4006244336118</v>
+        <v>463.8590080867564</v>
       </c>
       <c r="P30" t="n">
         <v>359.4805584342471</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>195.6855646814262</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.04919017668338</v>
+        <v>60.04919017668339</v>
       </c>
       <c r="K31" t="n">
         <v>164.2988139813557</v>
@@ -37002,7 +37002,7 @@
         <v>258.7629133314232</v>
       </c>
       <c r="O31" t="n">
-        <v>235.8160083188203</v>
+        <v>235.8160083188204</v>
       </c>
       <c r="P31" t="n">
         <v>195.0960473815671</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>223.0913503895368</v>
+        <v>223.0913503895373</v>
       </c>
       <c r="K32" t="n">
-        <v>415.4422066057635</v>
+        <v>415.442206605764</v>
       </c>
       <c r="L32" t="n">
-        <v>435.3196510695968</v>
+        <v>540.5502769888186</v>
       </c>
       <c r="M32" t="n">
-        <v>595.8193909732288</v>
+        <v>595.8193909732294</v>
       </c>
       <c r="N32" t="n">
-        <v>582.2719448398606</v>
+        <v>477.0413189206394</v>
       </c>
       <c r="O32" t="n">
-        <v>502.9165197922321</v>
+        <v>502.9165197922326</v>
       </c>
       <c r="P32" t="n">
-        <v>357.6402427300828</v>
+        <v>412.1640528635706</v>
       </c>
       <c r="Q32" t="n">
-        <v>258.0439644478544</v>
+        <v>203.5201543143576</v>
       </c>
       <c r="R32" t="n">
-        <v>48.90370974735081</v>
+        <v>48.90370974735135</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>99.29596121190275</v>
+        <v>277.7543448650474</v>
       </c>
       <c r="L33" t="n">
         <v>431.296686978834</v>
@@ -37160,13 +37160,13 @@
         <v>590.4320211167073</v>
       </c>
       <c r="O33" t="n">
-        <v>463.8590080867564</v>
+        <v>89.71505975218585</v>
       </c>
       <c r="P33" t="n">
         <v>359.4805584342471</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>195.6855646814261</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>62.6388942714033</v>
+        <v>62.63889427140384</v>
       </c>
       <c r="K34" t="n">
-        <v>166.8885180760756</v>
+        <v>166.8885180760762</v>
       </c>
       <c r="L34" t="n">
-        <v>242.3186600167919</v>
+        <v>179.3244580155569</v>
       </c>
       <c r="M34" t="n">
-        <v>261.8085620209188</v>
+        <v>261.8085620209193</v>
       </c>
       <c r="N34" t="n">
-        <v>261.3526174261432</v>
+        <v>261.3526174261437</v>
       </c>
       <c r="O34" t="n">
-        <v>175.4115104123177</v>
+        <v>238.4057124135408</v>
       </c>
       <c r="P34" t="n">
-        <v>197.685751476287</v>
+        <v>197.6857514762876</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.05331558697306</v>
+        <v>87.0533155869736</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>117.8607244703156</v>
+        <v>117.8607244703159</v>
       </c>
       <c r="K35" t="n">
         <v>310.2115806865423</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>87.74482471785652</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>277.7543448650474</v>
       </c>
       <c r="L36" t="n">
-        <v>334.9070835093107</v>
+        <v>431.296686978834</v>
       </c>
       <c r="M36" t="n">
         <v>562.0266431764519</v>
       </c>
       <c r="N36" t="n">
-        <v>590.4320211167073</v>
+        <v>128.5432480642803</v>
       </c>
       <c r="O36" t="n">
         <v>463.8590080867564</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>117.860724470315</v>
+        <v>117.8607244703156</v>
       </c>
       <c r="K38" t="n">
         <v>310.2115806865423</v>
@@ -37558,7 +37558,7 @@
         <v>397.685893873011</v>
       </c>
       <c r="P38" t="n">
-        <v>306.9334269443489</v>
+        <v>306.9334269443493</v>
       </c>
       <c r="Q38" t="n">
         <v>152.8133385286332</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>87.74482471785652</v>
       </c>
       <c r="K39" t="n">
-        <v>99.29596121190265</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>431.296686978834</v>
@@ -37640,7 +37640,7 @@
         <v>359.4805584342471</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>11.55113649404603</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>117.8607244703156</v>
       </c>
       <c r="K41" t="n">
-        <v>310.2115806865417</v>
+        <v>310.2115806865423</v>
       </c>
       <c r="L41" t="n">
         <v>435.3196510695968</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>277.7543448650474</v>
       </c>
       <c r="L42" t="n">
-        <v>334.9070835093107</v>
+        <v>431.296686978834</v>
       </c>
       <c r="M42" t="n">
         <v>562.0266431764519</v>
       </c>
       <c r="N42" t="n">
-        <v>590.4320211167073</v>
+        <v>575.7686312163841</v>
       </c>
       <c r="O42" t="n">
         <v>463.8590080867564</v>
       </c>
       <c r="P42" t="n">
-        <v>359.4805584342471</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>195.6855646814261</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>13.11929526556975</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>61.65789215685447</v>
       </c>
       <c r="L43" t="n">
-        <v>269.3039186478052</v>
+        <v>137.0880340975707</v>
       </c>
       <c r="M43" t="n">
         <v>156.5779361016976</v>
       </c>
       <c r="N43" t="n">
-        <v>288.3378760571565</v>
+        <v>187.4185971047404</v>
       </c>
       <c r="O43" t="n">
         <v>133.1750864943191</v>
       </c>
       <c r="P43" t="n">
-        <v>92.45512555706587</v>
+        <v>224.6710101073003</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>114.0385742179864</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.8607244703156</v>
+        <v>117.8607244703154</v>
       </c>
       <c r="K44" t="n">
         <v>310.2115806865423</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>87.74482471785652</v>
       </c>
       <c r="K45" t="n">
         <v>277.7543448650474</v>
@@ -38102,10 +38102,10 @@
         <v>431.296686978834</v>
       </c>
       <c r="M45" t="n">
-        <v>562.0266431764519</v>
+        <v>100.1378701240247</v>
       </c>
       <c r="N45" t="n">
-        <v>216.2880727821368</v>
+        <v>590.4320211167073</v>
       </c>
       <c r="O45" t="n">
         <v>463.8590080867564</v>
@@ -38184,10 +38184,10 @@
         <v>156.5779361016976</v>
       </c>
       <c r="N46" t="n">
-        <v>156.121991506922</v>
+        <v>288.3378760571565</v>
       </c>
       <c r="O46" t="n">
-        <v>265.3909710445536</v>
+        <v>133.1750864943191</v>
       </c>
       <c r="P46" t="n">
         <v>123.7517311548842</v>
